--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -453,7905 +453,7905 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mrb</t>
+          <t>rfpjohnj</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="C2" t="n">
-        <v>10.04</v>
+        <v>410.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RFOKSB167</t>
+          <t>rfojosj</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>879</v>
+        <v>213</v>
       </c>
       <c r="C3" t="n">
-        <v>332.72</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rfpjohnsj</t>
+          <t>RFOKSB835</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68</v>
+        <v>310</v>
       </c>
       <c r="C4" t="n">
-        <v>96.06999999999999</v>
+        <v>300.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rfosb161</t>
+          <t>rfopetfp</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>562</v>
+        <v>341</v>
       </c>
       <c r="C5" t="n">
-        <v>289.26</v>
+        <v>196.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rfoksb221</t>
+          <t>RATLI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3350</v>
+        <v>12116</v>
       </c>
       <c r="C6" t="n">
-        <v>918.4300000000001</v>
+        <v>4235.359999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rfkkb252</t>
+          <t>RFOSTREE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>508</v>
+        <v>4652</v>
       </c>
       <c r="C7" t="n">
-        <v>146.06</v>
+        <v>2063.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rfowiphm</t>
+          <t>RfOHamil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>2126</v>
       </c>
       <c r="C8" t="n">
-        <v>21.96</v>
+        <v>212.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rfoksc014</t>
+          <t>rf0319rf0319</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8870</v>
+        <v>1100</v>
       </c>
       <c r="C9" t="n">
-        <v>1709.26</v>
+        <v>194.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rf9759</t>
+          <t>rfoksco26</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>56.25</v>
+        <v>41.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rfoksc180</t>
+          <t>rfpjohnsj</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10887</v>
+        <v>68</v>
       </c>
       <c r="C11" t="n">
-        <v>2285.900000000001</v>
+        <v>96.06999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rfomaru</t>
+          <t>rfoksc135</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>2273</v>
       </c>
       <c r="C12" t="n">
-        <v>63.09</v>
+        <v>1266.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rrfoksa028</t>
+          <t>rfobate</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3122</v>
+        <v>1227</v>
       </c>
       <c r="C13" t="n">
-        <v>215.1</v>
+        <v>404.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rfogatli</t>
+          <t>rfosc014</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20173</v>
+        <v>59</v>
       </c>
       <c r="C14" t="n">
-        <v>7163.590000000002</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rfowichm</t>
+          <t>rfoksc180</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3304</v>
+        <v>10887</v>
       </c>
       <c r="C15" t="n">
-        <v>1532.02</v>
+        <v>2285.900000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>rfomaru</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="C16" t="n">
-        <v>65.59</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rfosb974</t>
+          <t>u</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="C17" t="n">
-        <v>183.83</v>
+        <v>593.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fokksb965</t>
+          <t>froruizord</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4762</v>
+        <v>537</v>
       </c>
       <c r="C18" t="n">
-        <v>327.62</v>
+        <v>230.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rfokb215</t>
+          <t>RFOKS479</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1808</v>
+        <v>1790</v>
       </c>
       <c r="C19" t="n">
-        <v>208.06</v>
+        <v>1474.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rfodmor</t>
+          <t>rfocas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92</v>
+        <v>2102</v>
       </c>
       <c r="C20" t="n">
-        <v>170.05</v>
+        <v>325.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rfoks161</t>
+          <t>rfodmoor</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1453</v>
+        <v>1064</v>
       </c>
       <c r="C21" t="n">
-        <v>476.8</v>
+        <v>12110.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RFOMCIntB</t>
+          <t>rf0359</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162</v>
+        <v>2972</v>
       </c>
       <c r="C22" t="n">
-        <v>108.49</v>
+        <v>550.27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rfopels</t>
+          <t>RFOkB974</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2404</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>821.54</v>
+        <v>196.94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rfok026</t>
+          <t>j</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="C24" t="n">
-        <v>258</v>
+        <v>645.0200000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rf8076</t>
+          <t>rfowichm</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634</v>
+        <v>3304</v>
       </c>
       <c r="C25" t="n">
-        <v>5994.88</v>
+        <v>1532.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rfostott</t>
+          <t>5398262</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5680</v>
+        <v>12929</v>
       </c>
       <c r="C26" t="n">
-        <v>1115.08</v>
+        <v>5377.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RFOMcINB</t>
+          <t>rfowichmrfowich</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>312</v>
+        <v>117</v>
       </c>
       <c r="C27" t="n">
-        <v>164.95</v>
+        <v>169.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>rfoscottt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="C28" t="n">
-        <v>31.24</v>
+        <v>109.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a132</t>
+          <t>froksa040</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8400</v>
+        <v>182</v>
       </c>
       <c r="C29" t="n">
-        <v>1576.27</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RFOMCItB</t>
+          <t>RFOKB212</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>838</v>
       </c>
       <c r="C30" t="n">
-        <v>76.55</v>
+        <v>390.53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>rfoksla</t>
+          <t>rfoevils</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="C31" t="n">
-        <v>196.86</v>
+        <v>137.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RWOOLE</t>
+          <t>rfoadams</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>220</v>
+        <v>1632</v>
       </c>
       <c r="C32" t="n">
-        <v>1404.25</v>
+        <v>275.86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>rfoksc852</t>
+          <t>b881</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C33" t="n">
-        <v>105.23</v>
+        <v>170.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>rfofrak</t>
+          <t>RFKSB871</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>425</v>
+        <v>2562</v>
       </c>
       <c r="C34" t="n">
-        <v>327.88</v>
+        <v>249.21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rfoksc184</t>
+          <t>rfomcfa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>195</v>
+        <v>639</v>
       </c>
       <c r="C35" t="n">
-        <v>185.47</v>
+        <v>234.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rfoghart</t>
+          <t>RFOSANDS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17101</v>
+        <v>9093</v>
       </c>
       <c r="C36" t="n">
-        <v>16604.56</v>
+        <v>3412.380000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>rfoswasey</t>
+          <t>rfoksb94</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5826</v>
+        <v>580</v>
       </c>
       <c r="C37" t="n">
-        <v>26132.14</v>
+        <v>152.14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>rfokslan</t>
+          <t>RFORoot</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2058</v>
+        <v>91</v>
       </c>
       <c r="C38" t="n">
-        <v>948.1300000000001</v>
+        <v>120.78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RFOKSB804</t>
+          <t>rf994</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6031</v>
+        <v>312</v>
       </c>
       <c r="C39" t="n">
-        <v>969.7600000000001</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>rfoksb405</t>
+          <t>rfojohnsj</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231</v>
+        <v>989</v>
       </c>
       <c r="C40" t="n">
-        <v>47.43</v>
+        <v>774.38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>rf842</t>
+          <t>rf7910</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>236.34</v>
+        <v>47.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfoh</t>
+          <t>rfoksc220</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1313</v>
+        <v>6067</v>
       </c>
       <c r="C42" t="n">
-        <v>117.56</v>
+        <v>1185.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>rfoksb129</t>
+          <t>RFKPARKE</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2131</v>
+        <v>2384</v>
       </c>
       <c r="C43" t="n">
-        <v>390.56</v>
+        <v>1151.57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>rfoksc340</t>
+          <t>rfospark</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>605</v>
+        <v>8641</v>
       </c>
       <c r="C44" t="n">
-        <v>87.06</v>
+        <v>2471.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>joserine</t>
+          <t>RFOMCINTB</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4078</v>
+        <v>9133</v>
       </c>
       <c r="C45" t="n">
-        <v>785.33</v>
+        <v>6328.31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RFOSANDS</t>
+          <t>rfoscovi</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9093</v>
+        <v>18020</v>
       </c>
       <c r="C46" t="n">
-        <v>3412.380000000001</v>
+        <v>5152.390000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RFODISCH</t>
+          <t>rfoksb373</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3548</v>
+        <v>5941</v>
       </c>
       <c r="C47" t="n">
-        <v>1050.36</v>
+        <v>1281.47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RFOLEBEAJ</t>
+          <t>RFOSTOTT</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1857</v>
+        <v>8227</v>
       </c>
       <c r="C48" t="n">
-        <v>359.52</v>
+        <v>3702.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>RFOSHAPI</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="C49" t="n">
-        <v>212.06</v>
+        <v>31.89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RFOBATE</t>
+          <t>rfoguilf</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>165.07</v>
+        <v>179.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>rfosands</t>
+          <t>rfoksb215</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5394</v>
+        <v>4281</v>
       </c>
       <c r="C51" t="n">
-        <v>2268.51</v>
+        <v>1585.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>rfkjohnss</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="C52" t="n">
-        <v>143.6</v>
+        <v>774.4299999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PICKEA</t>
+          <t>rfosteve</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>20125</v>
+        <v>6668</v>
       </c>
       <c r="C53" t="n">
-        <v>6961.570000000002</v>
+        <v>1579.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>froksa080</t>
+          <t>rg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3319</v>
+        <v>141</v>
       </c>
       <c r="C54" t="n">
-        <v>297.08</v>
+        <v>119.92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>rfopetf</t>
+          <t>RFOKSBrfoksb164</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3509</v>
+        <v>1151</v>
       </c>
       <c r="C55" t="n">
-        <v>397.23</v>
+        <v>477.32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>rfoksb375</t>
+          <t>RFOKsB96</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6956</v>
+        <v>1267</v>
       </c>
       <c r="C56" t="n">
-        <v>2151.59</v>
+        <v>118.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>rf0252</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>63</v>
+        <v>9273</v>
       </c>
       <c r="C57" t="n">
-        <v>99.22</v>
+        <v>3847.429999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RFOFISH</t>
+          <t>rfoswaey</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2403</v>
+        <v>2549</v>
       </c>
       <c r="C58" t="n">
-        <v>305.05</v>
+        <v>939.6300000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>rfhuph</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>549</v>
+        <v>22117</v>
       </c>
       <c r="C59" t="n">
-        <v>258.53</v>
+        <v>6078.480000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>rfohopi</t>
+          <t>rfooge</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v>329.84</v>
+        <v>170.05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>rofboye</t>
+          <t>RFOKSB94</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="C61" t="n">
-        <v>45.46</v>
+        <v>105.81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RFOHamil</t>
+          <t>rfoecor</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="C62" t="n">
-        <v>62.28</v>
+        <v>188.44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>rfoksa030</t>
+          <t>rfowiphm</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6247</v>
+        <v>41</v>
       </c>
       <c r="C63" t="n">
-        <v>1043.31</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>rfosteve</t>
+          <t>rfoswae</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6668</v>
+        <v>2356</v>
       </c>
       <c r="C64" t="n">
-        <v>1579.1</v>
+        <v>229.94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>rfkglve</t>
+          <t>Rfkksb369</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1163</v>
+        <v>1987</v>
       </c>
       <c r="C65" t="n">
-        <v>210.52</v>
+        <v>1635.76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>rfobaluc</t>
+          <t>rforootj</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3113</v>
+        <v>13120</v>
       </c>
       <c r="C66" t="n">
-        <v>1099.08</v>
+        <v>4987.039999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bt</t>
+          <t>RFOKSB974</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>6641</v>
       </c>
       <c r="C67" t="n">
-        <v>1124.22</v>
+        <v>3470.09</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RFOLAL</t>
+          <t>rf791</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>1352.42</v>
+        <v>52.07</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>rfoksbb004</t>
+          <t>abc</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>30.51</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RFOADAMS</t>
+          <t>ma</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24775</v>
+        <v>418</v>
       </c>
       <c r="C70" t="n">
-        <v>6502.09</v>
+        <v>86.62</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>rfohode</t>
+          <t>rfosand</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="C71" t="n">
-        <v>113.9</v>
+        <v>76.24000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RFOCINAD</t>
+          <t>rfoksa179</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="C72" t="n">
-        <v>223.02</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RFOKSC903</t>
+          <t>Rfksc174</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1121</v>
+        <v>767</v>
       </c>
       <c r="C73" t="n">
-        <v>626.0899999999999</v>
+        <v>243.42</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>rfokc919</t>
+          <t>rfopels</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1288</v>
+        <v>2404</v>
       </c>
       <c r="C74" t="n">
-        <v>273.36</v>
+        <v>821.54</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>rf0ksb6</t>
+          <t>rfohogde</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>323</v>
+        <v>84</v>
       </c>
       <c r="C75" t="n">
-        <v>221.57</v>
+        <v>172.75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>rforhode</t>
+          <t>rfohopki</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>13141</v>
+        <v>727</v>
       </c>
       <c r="C76" t="n">
-        <v>5501.95</v>
+        <v>571.3699999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mharb</t>
+          <t>c175</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>62</v>
+        <v>6759</v>
       </c>
       <c r="C77" t="n">
-        <v>75.86</v>
+        <v>2208.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>rfohami</t>
+          <t>rfoksb221</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>243</v>
+        <v>3350</v>
       </c>
       <c r="C78" t="n">
-        <v>188.5</v>
+        <v>918.4300000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>rf0ks11</t>
+          <t>robrech</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="C79" t="n">
-        <v>229.45</v>
+        <v>241.04</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RFoSURRE</t>
+          <t>RFOKSB523</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>433</v>
+        <v>1561</v>
       </c>
       <c r="C80" t="n">
-        <v>221.93</v>
+        <v>1072.86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>rfowisni</t>
+          <t>rfkhorne</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9345</v>
+        <v>169</v>
       </c>
       <c r="C81" t="n">
-        <v>2747.03</v>
+        <v>938.9299999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>rfkhorne</t>
+          <t>rfodoty</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>169</v>
+        <v>1106</v>
       </c>
       <c r="C82" t="n">
-        <v>938.9299999999999</v>
+        <v>570.7799999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>rfksb161</t>
+          <t>clarkh</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>548</v>
+        <v>105</v>
       </c>
       <c r="C83" t="n">
-        <v>82.40000000000001</v>
+        <v>141.32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RFOPELSo</t>
+          <t>rf8328</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="C84" t="n">
-        <v>55.51</v>
+        <v>184.89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rf9288</t>
+          <t>rfkgloe</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1916</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>789.5599999999999</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>rf987</t>
+          <t>rfkglove</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>878</v>
+        <v>3999</v>
       </c>
       <c r="C86" t="n">
-        <v>612.97</v>
+        <v>1801.12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ac175</t>
+          <t>rf0321rforuizor</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>38</v>
+        <v>2367</v>
       </c>
       <c r="C87" t="n">
-        <v>194.07</v>
+        <v>233.45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>rfoconus</t>
+          <t>rfoksa009</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2063</v>
+        <v>3876</v>
       </c>
       <c r="C88" t="n">
-        <v>932.36</v>
+        <v>549.64</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RFKSB871</t>
+          <t>rfoneedh</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2562</v>
+        <v>3138</v>
       </c>
       <c r="C89" t="n">
-        <v>249.21</v>
+        <v>873.8199999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>rfomilam</t>
+          <t>rfoka080</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>10473</v>
+        <v>1139</v>
       </c>
       <c r="C90" t="n">
-        <v>2169.150000000001</v>
+        <v>174.48</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>rfowolke</t>
+          <t>rfowisi</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>295</v>
+        <v>504</v>
       </c>
       <c r="C91" t="n">
-        <v>184.01</v>
+        <v>254.96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>rfohogde</t>
+          <t>rfokuhlm</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>84</v>
+        <v>277</v>
       </c>
       <c r="C92" t="n">
-        <v>172.75</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>rforootj</t>
+          <t>rfoghart</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13120</v>
+        <v>17101</v>
       </c>
       <c r="C93" t="n">
-        <v>4987.040000000001</v>
+        <v>16604.56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RFOCAsoS</t>
+          <t>MARTIC</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1582</v>
+        <v>8096</v>
       </c>
       <c r="C94" t="n">
-        <v>581.96</v>
+        <v>2131.89</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>rfoswsey</t>
+          <t>PICKEA</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2290</v>
+        <v>20125</v>
       </c>
       <c r="C95" t="n">
-        <v>213.66</v>
+        <v>6961.570000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>rfoharneb</t>
+          <t>rfohumph</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10094</v>
+        <v>3532</v>
       </c>
       <c r="C96" t="n">
-        <v>3331.37</v>
+        <v>857.7199999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>rfoksb804</t>
+          <t>rfoande</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6804</v>
+        <v>188</v>
       </c>
       <c r="C97" t="n">
-        <v>2092.75</v>
+        <v>586.71</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RFOCONUSA</t>
+          <t>RFOWICHM</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6502</v>
+        <v>224</v>
       </c>
       <c r="C98" t="n">
-        <v>1433.05</v>
+        <v>481.84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>c1001</t>
+          <t>rfkglve</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2692</v>
+        <v>1163</v>
       </c>
       <c r="C99" t="n">
-        <v>667.87</v>
+        <v>210.52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rfosajd</t>
+          <t>RFOROOT</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>602</v>
+        <v>16556</v>
       </c>
       <c r="C100" t="n">
-        <v>363.75</v>
+        <v>4756.16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rfoilam</t>
+          <t>rf0ks161</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>496</v>
+        <v>728</v>
       </c>
       <c r="C101" t="n">
-        <v>348.87</v>
+        <v>849.51</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>rfoswae</t>
+          <t>RFOSTEWAP</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2356</v>
+        <v>13938</v>
       </c>
       <c r="C102" t="n">
-        <v>229.94</v>
+        <v>3594.829999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>rfoks16</t>
+          <t>rfoksc121</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>158.88</v>
+        <v>83.84999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FRORUIZORD</t>
+          <t>RFOKSB479</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>21979</v>
+        <v>434</v>
       </c>
       <c r="C104" t="n">
-        <v>5598.509999999999</v>
+        <v>76.27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>rfgeiss</t>
+          <t>rfodmor</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1440</v>
+        <v>92</v>
       </c>
       <c r="C105" t="n">
-        <v>439.79</v>
+        <v>170.05</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>rfonspea</t>
+          <t>mh</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>197</v>
+        <v>6748</v>
       </c>
       <c r="C106" t="n">
-        <v>172.18</v>
+        <v>3018.7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MAzZA</t>
+          <t>RFOJSTEP</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2775</v>
       </c>
       <c r="C107" t="n">
-        <v>34.63</v>
+        <v>763.4300000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>rf9825</t>
+          <t>RFOKSB212</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>954</v>
+        <v>1747</v>
       </c>
       <c r="C108" t="n">
-        <v>94.37</v>
+        <v>1193.28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>rfoecor</t>
+          <t>rf0367</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>292</v>
+        <v>3056</v>
       </c>
       <c r="C109" t="n">
-        <v>188.44</v>
+        <v>1674.76</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>rfofish</t>
+          <t>RFOMcINTB</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9011</v>
+        <v>1047</v>
       </c>
       <c r="C110" t="n">
-        <v>2143.15</v>
+        <v>216.38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>rfkksc166</t>
+          <t>rfofrak</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3368</v>
+        <v>425</v>
       </c>
       <c r="C111" t="n">
-        <v>489.92</v>
+        <v>327.88</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RFOKSB005</t>
+          <t>rfoscott</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>430</v>
+        <v>19061</v>
       </c>
       <c r="C112" t="n">
-        <v>221.67</v>
+        <v>4479.94</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>JONESZA</t>
+          <t>rfoc4[</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9134</v>
+        <v>408</v>
       </c>
       <c r="C113" t="n">
-        <v>3739.61</v>
+        <v>358.88</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>rf032</t>
+          <t>RFOGLAWR</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>176</v>
+        <v>4424</v>
       </c>
       <c r="C114" t="n">
-        <v>254.76</v>
+        <v>1733.03</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>rfokuhlm</t>
+          <t>RFOMCIntB</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="C115" t="n">
-        <v>63.84</v>
+        <v>108.49</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>rfomcfa</t>
+          <t>RFOADAMS</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>639</v>
+        <v>24775</v>
       </c>
       <c r="C116" t="n">
-        <v>234.26</v>
+        <v>6502.089999999998</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>rfochan</t>
+          <t>rf0sb161</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>1006</v>
       </c>
       <c r="C117" t="n">
-        <v>301.15</v>
+        <v>157.16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>rfilam</t>
+          <t>rf7902</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="C118" t="n">
-        <v>30.07</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RFOKRATZBE</t>
+          <t>rfokb96</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>760</v>
+        <v>1006</v>
       </c>
       <c r="C119" t="n">
-        <v>329.99</v>
+        <v>344.22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rfoboyer</t>
+          <t>RFOCAsoS</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>5664</v>
+        <v>1582</v>
       </c>
       <c r="C120" t="n">
-        <v>818.1799999999999</v>
+        <v>581.96</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RFOAMART</t>
+          <t>wisnie</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1289</v>
+        <v>330</v>
       </c>
       <c r="C121" t="n">
-        <v>1128.06</v>
+        <v>286.37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>dgg</t>
+          <t>rfoniver</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>86</v>
+        <v>12082</v>
       </c>
       <c r="C122" t="n">
-        <v>18.58</v>
+        <v>2673.79</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ROFKSC379</t>
+          <t>rfks22</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>619</v>
+        <v>10</v>
       </c>
       <c r="C123" t="n">
-        <v>428.4</v>
+        <v>146.23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RFOSTOTT</t>
+          <t>surr</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>8227</v>
+        <v>544</v>
       </c>
       <c r="C124" t="n">
-        <v>3702.72</v>
+        <v>80.81999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>rfklundbrf7226</t>
+          <t>rfoksa252</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>5379</v>
       </c>
       <c r="C125" t="n">
-        <v>2.55</v>
+        <v>1336.77</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>rfostree</t>
+          <t>rf0395</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>12626</v>
+        <v>1552</v>
       </c>
       <c r="C126" t="n">
-        <v>4798.44</v>
+        <v>312.13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RFOKSB49</t>
+          <t>rfokc179</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1217</v>
+        <v>1132</v>
       </c>
       <c r="C127" t="n">
-        <v>169.22</v>
+        <v>108.02</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RFOKSB523</t>
+          <t>rfocallla</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1561</v>
+        <v>103</v>
       </c>
       <c r="C128" t="n">
-        <v>1072.86</v>
+        <v>124.3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>rfks22</t>
+          <t>JOONESZA</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C129" t="n">
-        <v>146.23</v>
+        <v>695.08</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>rfogeiss</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="C130" t="n">
-        <v>105.5</v>
+        <v>223.12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ku</t>
+          <t>rokible</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4714</v>
+        <v>188</v>
       </c>
       <c r="C131" t="n">
-        <v>843.9300000000001</v>
+        <v>240.85</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RFOKSB96</t>
+          <t>rfoherma</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1492</v>
+        <v>8688</v>
       </c>
       <c r="C132" t="n">
-        <v>174.88</v>
+        <v>2049.28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RFOCHAN</t>
+          <t>rfokslan</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>275</v>
+        <v>2058</v>
       </c>
       <c r="C133" t="n">
-        <v>657.25</v>
+        <v>948.1300000000002</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rokible</t>
+          <t>Rfoksc097</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>188</v>
+        <v>528</v>
       </c>
       <c r="C134" t="n">
-        <v>240.85</v>
+        <v>344.24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>rf0321rforuizor</t>
+          <t>rfoksb865</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2367</v>
+        <v>6950</v>
       </c>
       <c r="C135" t="n">
-        <v>233.45</v>
+        <v>595.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>rfofis</t>
+          <t>rf8143</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1340</v>
+        <v>2083</v>
       </c>
       <c r="C136" t="n">
-        <v>748.7099999999999</v>
+        <v>750.2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Rfoksc520</t>
+          <t>rfogilbek</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1542</v>
+        <v>6214</v>
       </c>
       <c r="C137" t="n">
-        <v>622.36</v>
+        <v>1824.33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RFOGLAWR</t>
+          <t>Froksc991</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4424</v>
+        <v>250</v>
       </c>
       <c r="C138" t="n">
-        <v>1733.03</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RFKPARKE</t>
+          <t>RFOCINAD</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2384</v>
+        <v>163</v>
       </c>
       <c r="C139" t="n">
-        <v>1151.57</v>
+        <v>223.02</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>b881</t>
+          <t>rf9288</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>96</v>
+        <v>1916</v>
       </c>
       <c r="C140" t="n">
-        <v>170.35</v>
+        <v>789.5599999999999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RFOBARTE</t>
+          <t>rfoksl</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>11637</v>
+        <v>131</v>
       </c>
       <c r="C141" t="n">
-        <v>2653.839999999999</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RFOPACHE</t>
+          <t>Rfoksa031</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>21584</v>
+        <v>15718</v>
       </c>
       <c r="C142" t="n">
-        <v>4297.63</v>
+        <v>2602.869999999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Rfoksb974</t>
+          <t>rfoksc378</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>926</v>
+        <v>4624</v>
       </c>
       <c r="C143" t="n">
-        <v>111.07</v>
+        <v>621.23</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>rfowichmann</t>
+          <t>RFOKSC554</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>98</v>
+        <v>6124</v>
       </c>
       <c r="C144" t="n">
-        <v>62.11</v>
+        <v>1239.08</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>rf0359</t>
+          <t>RFKJOHNSS</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2972</v>
+        <v>6167</v>
       </c>
       <c r="C145" t="n">
-        <v>550.27</v>
+        <v>1379.44</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>rfosa040</t>
+          <t>rfoksa246</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1513</v>
+        <v>13723</v>
       </c>
       <c r="C146" t="n">
-        <v>383.12</v>
+        <v>1584.25</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>rfogilbek</t>
+          <t>rfoksc183</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6214</v>
+        <v>11393</v>
       </c>
       <c r="C147" t="n">
-        <v>1824.33</v>
+        <v>2164.7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SHAPI</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1040</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>287.47</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>rfowisi</t>
+          <t>rfoswase</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>504</v>
+        <v>141</v>
       </c>
       <c r="C149" t="n">
-        <v>254.96</v>
+        <v>5763.1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>foksb965</t>
+          <t>rfosb974</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>869</v>
+        <v>309</v>
       </c>
       <c r="C150" t="n">
-        <v>492.42</v>
+        <v>183.83</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Rfksa031</t>
+          <t>rfoksb375</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1402</v>
+        <v>6956</v>
       </c>
       <c r="C151" t="n">
-        <v>349.88</v>
+        <v>2151.59</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>rfoks159</t>
+          <t>rfopetfo</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>631</v>
+        <v>16242</v>
       </c>
       <c r="C152" t="n">
-        <v>80.16</v>
+        <v>3876.01</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>dg</t>
+          <t>rrfoksb159</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="C153" t="n">
-        <v>268.41</v>
+        <v>164.6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FFOKB804</t>
+          <t>rfoopi</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3478</v>
+        <v>184</v>
       </c>
       <c r="C154" t="n">
-        <v>325</v>
+        <v>179.71</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>joserie</t>
+          <t>RFOBROCK</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>156</v>
+        <v>15804</v>
       </c>
       <c r="C155" t="n">
-        <v>101.57</v>
+        <v>3722.43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>rfoksc378</t>
+          <t>rfok026</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4624</v>
+        <v>603</v>
       </c>
       <c r="C156" t="n">
-        <v>621.23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>rfocecor</t>
+          <t>rfojohnssrfojohnssrfojohns</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>12624</v>
+        <v>26</v>
       </c>
       <c r="C157" t="n">
-        <v>2458.02</v>
+        <v>214.99</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>rfofield</t>
+          <t>RFOKSB977</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12190</v>
+        <v>3760</v>
       </c>
       <c r="C158" t="n">
-        <v>5905.39</v>
+        <v>1764.85</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>EDWAR</t>
+          <t>rfoschwa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2592</v>
+        <v>9815</v>
       </c>
       <c r="C159" t="n">
-        <v>947.72</v>
+        <v>3834.85</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>rfocinad</t>
+          <t>bg9</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5318</v>
+        <v>49</v>
       </c>
       <c r="C160" t="n">
-        <v>1400.15</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RFOPACHEC</t>
+          <t>dg</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4979</v>
+        <v>312</v>
       </c>
       <c r="C161" t="n">
-        <v>2243.62</v>
+        <v>268.41</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>rfoksc905</t>
+          <t>Rfoksc071</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2769</v>
+        <v>2734</v>
       </c>
       <c r="C162" t="n">
-        <v>815.67</v>
+        <v>383.02</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>rfoander</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5263</v>
+        <v>208</v>
       </c>
       <c r="C163" t="n">
-        <v>1978.41</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RFOHORNE</t>
+          <t>rfoksb161</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>7327</v>
+        <v>3588</v>
       </c>
       <c r="C164" t="n">
-        <v>1169.28</v>
+        <v>1092.16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tfoghart</t>
+          <t>rfosa040</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>43</v>
+        <v>1513</v>
       </c>
       <c r="C165" t="n">
-        <v>41</v>
+        <v>383.12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>harry</t>
+          <t>RFOSTIFT</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>626</v>
       </c>
       <c r="C166" t="n">
-        <v>103.46</v>
+        <v>898.87</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BGUSER</t>
+          <t>RFKKLEIB</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1559</v>
+        <v>44</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>67.89999999999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>rfomedic</t>
+          <t>RFoksa031</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>65</v>
+        <v>2410</v>
       </c>
       <c r="C168" t="n">
-        <v>139.67</v>
+        <v>214.66</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>cfoksc177</t>
+          <t>rfodelo</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1901</v>
+        <v>6</v>
       </c>
       <c r="C169" t="n">
-        <v>244.94</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>rfohill</t>
+          <t>RFODOTY</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="C170" t="n">
-        <v>267.16</v>
+        <v>321.03</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>rfocina</t>
+          <t>RFOLEBEAJ</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>881</v>
+        <v>1857</v>
       </c>
       <c r="C171" t="n">
-        <v>177.9</v>
+        <v>359.52</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rfoksb9</t>
+          <t>rfkksb252</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>895</v>
+        <v>10941</v>
       </c>
       <c r="C172" t="n">
-        <v>207.65</v>
+        <v>4343.209999999999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>rfokb965</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>597</v>
+        <v>2198</v>
       </c>
       <c r="C173" t="n">
-        <v>1082.08</v>
+        <v>187.79</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>hdge</t>
+          <t>rfowisni</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>9345</v>
       </c>
       <c r="C174" t="n">
-        <v>12.23</v>
+        <v>2747.030000000001</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>rfokb221</t>
+          <t>rrfoksa028</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1620</v>
+        <v>3122</v>
       </c>
       <c r="C175" t="n">
-        <v>336.55</v>
+        <v>215.1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RFOMCINTB</t>
+          <t>rfocinad</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>9133</v>
+        <v>5318</v>
       </c>
       <c r="C176" t="n">
-        <v>6328.31</v>
+        <v>1400.15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MARTIC</t>
+          <t>rfoksc184</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>8096</v>
+        <v>195</v>
       </c>
       <c r="C177" t="n">
-        <v>2131.89</v>
+        <v>185.47</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RFOKSB871</t>
+          <t>rfilam</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1136</v>
+        <v>2</v>
       </c>
       <c r="C178" t="n">
-        <v>1403.27</v>
+        <v>30.07</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>joserrine</t>
+          <t>rfoksa006</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>120</v>
+        <v>17400</v>
       </c>
       <c r="C179" t="n">
-        <v>324.01</v>
+        <v>2684.870000000001</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>rfoks902</t>
+          <t>rfoks16</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1414</v>
+        <v>354</v>
       </c>
       <c r="C180" t="n">
-        <v>452.25</v>
+        <v>158.88</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>rfkglive</t>
+          <t>rfoksc903</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>278</v>
+        <v>955</v>
       </c>
       <c r="C181" t="n">
-        <v>97.38</v>
+        <v>585.23</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>rfopetfo</t>
+          <t>rfoswasey</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16242</v>
+        <v>5826</v>
       </c>
       <c r="C182" t="n">
-        <v>3876.01</v>
+        <v>26132.14</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>rf8328</t>
+          <t>RfOMCINTB</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>267</v>
+        <v>536</v>
       </c>
       <c r="C183" t="n">
-        <v>184.89</v>
+        <v>73.87</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RFOKSB479</t>
+          <t>rf9968</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>434</v>
+        <v>273</v>
       </c>
       <c r="C184" t="n">
-        <v>76.27</v>
+        <v>160.49</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RF0321</t>
+          <t>rfoksa040</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>434</v>
+        <v>13949</v>
       </c>
       <c r="C185" t="n">
-        <v>100.92</v>
+        <v>1885.74</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ashom</t>
+          <t>rfoksb159</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>58</v>
+        <v>13504</v>
       </c>
       <c r="C186" t="n">
-        <v>30.29</v>
+        <v>5808.990000000001</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RFOCARSOS</t>
+          <t>rfostree</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>10687</v>
+        <v>12626</v>
       </c>
       <c r="C187" t="n">
-        <v>4989.3</v>
+        <v>4798.440000000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>rf9743</t>
+          <t>rfokc014</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>741</v>
+        <v>1166</v>
       </c>
       <c r="C188" t="n">
-        <v>203.15</v>
+        <v>287.49</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RFOSHAPI</t>
+          <t>rf035</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>26</v>
+        <v>1940</v>
       </c>
       <c r="C189" t="n">
-        <v>31.89</v>
+        <v>316.22</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Rfoksb74</t>
+          <t>rfodmar</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>172</v>
+        <v>2022</v>
       </c>
       <c r="C190" t="n">
-        <v>163.94</v>
+        <v>275.38</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>rfoksb686</t>
+          <t>rfofis</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>15095</v>
+        <v>1340</v>
       </c>
       <c r="C191" t="n">
-        <v>3332.84</v>
+        <v>748.71</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>thursday</t>
+          <t>rfokratzbe</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>148</v>
+        <v>15963</v>
       </c>
       <c r="C192" t="n">
-        <v>569.75</v>
+        <v>4312.08</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>rfoks002</t>
+          <t>rfoksc340</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="C193" t="n">
-        <v>405.01</v>
+        <v>87.06</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>rfoksc183</t>
+          <t>weig</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>11393</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
-        <v>2164.7</v>
+        <v>398.08</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>bg6</t>
+          <t>rfobooyer</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>56.21</v>
+        <v>37.43</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MCDOW</t>
+          <t>rfowichmann</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2717</v>
+        <v>98</v>
       </c>
       <c r="C196" t="n">
-        <v>952.24</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RFKKLEIB</t>
+          <t>rf810</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>44</v>
+        <v>1523</v>
       </c>
       <c r="C197" t="n">
-        <v>67.89999999999999</v>
+        <v>164.17</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>rf771</t>
+          <t>rfoksc520</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1459</v>
+        <v>2592</v>
       </c>
       <c r="C198" t="n">
-        <v>248.41</v>
+        <v>405.34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>rfosc014</t>
+          <t>rfoksb955</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>59</v>
+        <v>1660</v>
       </c>
       <c r="C199" t="n">
-        <v>13.25</v>
+        <v>1478.18</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>rfobooyer</t>
+          <t>rfoksb354</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>2198</v>
       </c>
       <c r="C200" t="n">
-        <v>37.43</v>
+        <v>1572.68</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>rf810</t>
+          <t>rfopetf</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1523</v>
+        <v>3509</v>
       </c>
       <c r="C201" t="n">
-        <v>164.17</v>
+        <v>397.23</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>rftalib</t>
+          <t>RFoSURRE</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="C202" t="n">
-        <v>73.38</v>
+        <v>221.93</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>rfowadew</t>
+          <t>rf0hamil</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>15801</v>
+        <v>7</v>
       </c>
       <c r="C203" t="n">
-        <v>4503.75</v>
+        <v>137.49</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>rfohodg</t>
+          <t>rfoemar</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>660</v>
       </c>
       <c r="C204" t="n">
-        <v>25.38</v>
+        <v>162.34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RFOBRADA</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>11920</v>
+        <v>597</v>
       </c>
       <c r="C205" t="n">
-        <v>7943.03</v>
+        <v>1082.08</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RFOKS340</t>
+          <t>MAZa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>754</v>
+        <v>1218</v>
       </c>
       <c r="C206" t="n">
-        <v>75</v>
+        <v>1029.97</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>rf0206</t>
+          <t>RFOMcINB</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="C207" t="n">
-        <v>111.56</v>
+        <v>164.95</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>rfoksl</t>
+          <t>RFOGILBEK</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>131</v>
+        <v>5733</v>
       </c>
       <c r="C208" t="n">
-        <v>45.98</v>
+        <v>1706.81</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>rf0sb161</t>
+          <t>rfobutle3</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1006</v>
+        <v>15211</v>
       </c>
       <c r="C209" t="n">
-        <v>157.16</v>
+        <v>3289.97</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RFOKSB183</t>
+          <t>rfofrank</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3163</v>
+        <v>3362</v>
       </c>
       <c r="C210" t="n">
-        <v>1231.08</v>
+        <v>1654.93</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RFoMCINTB</t>
+          <t>rf0255</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>42</v>
+        <v>8491</v>
       </c>
       <c r="C211" t="n">
-        <v>75.61</v>
+        <v>1179.45</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>rfklundb</t>
+          <t>rf0342</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>2519</v>
       </c>
       <c r="C212" t="n">
-        <v>161.69</v>
+        <v>729.71</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>rf7392</t>
+          <t>rfoskb974</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>194.22</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>rfoboyer</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1020</v>
+        <v>5664</v>
       </c>
       <c r="C214" t="n">
-        <v>351.79</v>
+        <v>818.1799999999999</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>rfojohj</t>
+          <t>rfosajd</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>159</v>
+        <v>602</v>
       </c>
       <c r="C215" t="n">
-        <v>288.07</v>
+        <v>363.75</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>rfostev</t>
+          <t>rfs9sb965</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>883</v>
+        <v>140</v>
       </c>
       <c r="C216" t="n">
-        <v>2525.34</v>
+        <v>170.04</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>B166</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2749</v>
+        <v>3560</v>
       </c>
       <c r="C217" t="n">
-        <v>672.05</v>
+        <v>1998.21</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>rfomilm</t>
+          <t>rfonspea</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2542</v>
+        <v>197</v>
       </c>
       <c r="C218" t="n">
-        <v>629</v>
+        <v>172.18</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>rfoka028</t>
+          <t>RF8657</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2767</v>
+        <v>1243</v>
       </c>
       <c r="C219" t="n">
-        <v>402.07</v>
+        <v>636.9200000000001</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>rfojosj</t>
+          <t>RFOHERRI</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>213</v>
+        <v>3430</v>
       </c>
       <c r="C220" t="n">
-        <v>136.24</v>
+        <v>1879.36</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>rfoksc396</t>
+          <t>RFOKB96</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4636</v>
+        <v>261</v>
       </c>
       <c r="C221" t="n">
-        <v>1108.31</v>
+        <v>227.83</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RFOROOT</t>
+          <t>rf7392</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>16556</v>
+        <v>123</v>
       </c>
       <c r="C222" t="n">
-        <v>4756.16</v>
+        <v>194.22</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>rbfoksb159</t>
+          <t>FRORUIZORD</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1898</v>
+        <v>21979</v>
       </c>
       <c r="C223" t="n">
-        <v>375.39</v>
+        <v>5598.509999999999</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>h-</t>
+          <t>FFOKB804</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>735</v>
+        <v>3478</v>
       </c>
       <c r="C224" t="n">
-        <v>153.54</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>rfokrarzbe</t>
+          <t>hdge</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>171.62</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>bg9</t>
+          <t>RFOKS340</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>49</v>
+        <v>754</v>
       </c>
       <c r="C226" t="n">
-        <v>13.63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>surre</t>
+          <t>RF8062</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1954</v>
+        <v>909</v>
       </c>
       <c r="C227" t="n">
-        <v>749.73</v>
+        <v>415.67</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>rf791</t>
+          <t>rfkksc377</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>15</v>
+        <v>6548</v>
       </c>
       <c r="C228" t="n">
-        <v>52.07</v>
+        <v>1463.73</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RFORoot</t>
+          <t>rfoksb212</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c r="C229" t="n">
-        <v>120.78</v>
+        <v>153.15</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>rf0252</t>
+          <t>RFOMCItB</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>9273</v>
+        <v>14</v>
       </c>
       <c r="C230" t="n">
-        <v>3847.43</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Rfoksc30</t>
+          <t>rofboyer</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C231" t="n">
-        <v>78.95</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>RFOKSB887</t>
+          <t>roks159</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2578</v>
+        <v>888</v>
       </c>
       <c r="C232" t="n">
-        <v>1799.78</v>
+        <v>146.92</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>rrfoksb159</t>
+          <t>RFOKSB003</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="C233" t="n">
-        <v>164.6</v>
+        <v>95.95</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>rfoksc220</t>
+          <t>RFOKSB983</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>6067</v>
+        <v>103</v>
       </c>
       <c r="C234" t="n">
-        <v>1185.5</v>
+        <v>173.89</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>rfopeto</t>
+          <t>rfoswsey</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>124</v>
+        <v>2290</v>
       </c>
       <c r="C235" t="n">
-        <v>476.97</v>
+        <v>213.66</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>rf0367</t>
+          <t>rfofranc</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3056</v>
+        <v>809</v>
       </c>
       <c r="C236" t="n">
-        <v>1674.76</v>
+        <v>382.99</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>rfoadams</t>
+          <t>rfoksb123</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1632</v>
+        <v>485</v>
       </c>
       <c r="C237" t="n">
-        <v>275.86</v>
+        <v>735.2700000000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>rfoksa040</t>
+          <t>surre</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>13949</v>
+        <v>1954</v>
       </c>
       <c r="C238" t="n">
-        <v>1885.74</v>
+        <v>749.73</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>rf8143</t>
+          <t>rfohorne</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2083</v>
+        <v>11205</v>
       </c>
       <c r="C239" t="n">
-        <v>750.2</v>
+        <v>4949.36</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>rfkchan</t>
+          <t>rfoksb804</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1053</v>
+        <v>6804</v>
       </c>
       <c r="C240" t="n">
-        <v>1027.39</v>
+        <v>2092.75</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>rfosc0ovi</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>682</v>
+        <v>281</v>
       </c>
       <c r="C241" t="n">
-        <v>200.61</v>
+        <v>212.06</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>rfoksc026</t>
+          <t>rfoka028</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>19340</v>
+        <v>2767</v>
       </c>
       <c r="C242" t="n">
-        <v>3408.750000000001</v>
+        <v>402.07</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>rfoande</t>
+          <t>rfofield</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>188</v>
+        <v>12190</v>
       </c>
       <c r="C243" t="n">
-        <v>586.71</v>
+        <v>5905.390000000001</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>frorootj</t>
+          <t>rfoksb02</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>97</v>
+        <v>2313</v>
       </c>
       <c r="C244" t="n">
-        <v>153.51</v>
+        <v>291.92</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>thursday</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="C245" t="n">
-        <v>60.07</v>
+        <v>569.75</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>rfoksc041</t>
+          <t>rfokb405</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>7272</v>
+        <v>175</v>
       </c>
       <c r="C246" t="n">
-        <v>1522.46</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RFOKSB164</t>
+          <t>rfoksa039</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>7164</v>
+        <v>24665</v>
       </c>
       <c r="C247" t="n">
-        <v>1208.6</v>
+        <v>3296.43</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RFOBROCK</t>
+          <t>yest</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>15804</v>
+        <v>371</v>
       </c>
       <c r="C248" t="n">
-        <v>3722.429999999999</v>
+        <v>58.39</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>rfokc014</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1166</v>
+        <v>2</v>
       </c>
       <c r="C249" t="n">
-        <v>287.49</v>
+        <v>60.07</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>rfoconusa</t>
+          <t>rfokratzb</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>15111</v>
+        <v>1901</v>
       </c>
       <c r="C250" t="n">
-        <v>5681.460000000001</v>
+        <v>643.46</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RFOMcINTB</t>
+          <t>rfklundb</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1047</v>
+        <v>4</v>
       </c>
       <c r="C251" t="n">
-        <v>216.38</v>
+        <v>161.69</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>rf0252rf0252rfoconusarfoconusarfoconus</t>
+          <t>dgg</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1094</v>
+        <v>86</v>
       </c>
       <c r="C252" t="n">
-        <v>105.01</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>RF8657</t>
+          <t>RFOWOOLE</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1243</v>
+        <v>7488</v>
       </c>
       <c r="C253" t="n">
-        <v>636.92</v>
+        <v>6235.19</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>griff</t>
+          <t>rfoksb170</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>8</v>
+        <v>2771</v>
       </c>
       <c r="C254" t="n">
-        <v>138.32</v>
+        <v>720.6700000000001</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>rfostif</t>
+          <t>rfodot</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1744</v>
+        <v>9</v>
       </c>
       <c r="C255" t="n">
-        <v>426.67</v>
+        <v>36.47</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>rfoksb234</t>
+          <t>rf8143rf8143</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="C256" t="n">
-        <v>122.74</v>
+        <v>36.43</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>robrech</t>
+          <t>rfotalob</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>411</v>
+        <v>1389</v>
       </c>
       <c r="C257" t="n">
-        <v>241.04</v>
+        <v>285.16</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>rfodot</t>
+          <t>rfojohnss</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>9</v>
+        <v>5177</v>
       </c>
       <c r="C258" t="n">
-        <v>36.47</v>
+        <v>769.5</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>rfogatl</t>
+          <t>rfoshump</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>281</v>
+        <v>747</v>
       </c>
       <c r="C259" t="n">
-        <v>39.81</v>
+        <v>111.36</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RFOKSB977</t>
+          <t>rfomedlo</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3760</v>
+        <v>3778</v>
       </c>
       <c r="C260" t="n">
-        <v>1764.85</v>
+        <v>848.24</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>rg</t>
+          <t>rf0ksb6</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="C261" t="n">
-        <v>119.92</v>
+        <v>221.57</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>rfodemar</t>
+          <t>Rfogilbek</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>11669</v>
+        <v>93</v>
       </c>
       <c r="C262" t="n">
-        <v>3224.79</v>
+        <v>93.39</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>rfoksa006</t>
+          <t>rfoass</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>17400</v>
+        <v>618</v>
       </c>
       <c r="C263" t="n">
-        <v>2684.869999999999</v>
+        <v>334.82</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>rfokratzb</t>
+          <t>omilam</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1901</v>
+        <v>2484</v>
       </c>
       <c r="C264" t="n">
-        <v>643.46</v>
+        <v>245.32</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>RFOKSC379</t>
+          <t>rfoksa03</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2088</v>
+        <v>3933</v>
       </c>
       <c r="C265" t="n">
-        <v>306.38</v>
+        <v>318.59</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>rfoksln</t>
+          <t>rfogatl</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="C266" t="n">
-        <v>168.14</v>
+        <v>39.81</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>rfkksc149</t>
+          <t>ROFKSC379</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1342</v>
+        <v>619</v>
       </c>
       <c r="C267" t="n">
-        <v>177.94</v>
+        <v>428.4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>rfokb3</t>
+          <t>RFOKSB804</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1390</v>
+        <v>6031</v>
       </c>
       <c r="C268" t="n">
-        <v>274.72</v>
+        <v>969.76</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>RFOPIERCN</t>
+          <t>rfodely</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1184</v>
+        <v>1205</v>
       </c>
       <c r="C269" t="n">
-        <v>499.52</v>
+        <v>253.99</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RFOKLEIB</t>
+          <t>rfojohj</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1072</v>
+        <v>159</v>
       </c>
       <c r="C270" t="n">
-        <v>7819.41</v>
+        <v>288.07</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>rfoclark</t>
+          <t>rfoksb002</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>8869</v>
+        <v>5591</v>
       </c>
       <c r="C271" t="n">
-        <v>1670.81</v>
+        <v>2313.04</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RFOGILBE</t>
+          <t>rfohami</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>11695</v>
+        <v>243</v>
       </c>
       <c r="C272" t="n">
-        <v>3498.070000000001</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>rfoherri</t>
+          <t>rfodolla</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="C273" t="n">
-        <v>1438.15</v>
+        <v>234.55</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>RFOkB974</t>
+          <t>p</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C274" t="n">
-        <v>196.94</v>
+        <v>143.6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TURNEM</t>
+          <t>rfhuph</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1269</v>
+        <v>549</v>
       </c>
       <c r="C275" t="n">
-        <v>413.12</v>
+        <v>258.53</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RFoksa031</t>
+          <t>rf7821</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2410</v>
+        <v>549</v>
       </c>
       <c r="C276" t="n">
-        <v>214.66</v>
+        <v>273.81</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>rfokratzbe</t>
+          <t>Rfoksc30</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>15963</v>
+        <v>40</v>
       </c>
       <c r="C277" t="n">
-        <v>4312.080000000001</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>rf7713</t>
+          <t>rfocecor</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2369</v>
+        <v>12624</v>
       </c>
       <c r="C278" t="n">
-        <v>1367.57</v>
+        <v>2458.02</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>RFoTURNEM</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C279" t="n">
-        <v>1059.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>rtokible</t>
+          <t>rfosb955</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>381</v>
+        <v>2148</v>
       </c>
       <c r="C280" t="n">
-        <v>195.47</v>
+        <v>198.07</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RF8062</t>
+          <t>RFOREA</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>909</v>
+        <v>1994</v>
       </c>
       <c r="C281" t="n">
-        <v>415.67</v>
+        <v>910.5500000000001</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RFOKSB974</t>
+          <t>RFOKSB999</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>6641</v>
+        <v>847</v>
       </c>
       <c r="C282" t="n">
-        <v>3470.09</v>
+        <v>725.2900000000001</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RFKMANN</t>
+          <t>rfoks159</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>221</v>
+        <v>631</v>
       </c>
       <c r="C283" t="n">
-        <v>361.62</v>
+        <v>80.16</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RFOKSB212</t>
+          <t>Rfksa031</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1747</v>
+        <v>1402</v>
       </c>
       <c r="C284" t="n">
-        <v>1193.28</v>
+        <v>349.88</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>rf0358</t>
+          <t>rfopiercn</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>102</v>
+        <v>4937</v>
       </c>
       <c r="C285" t="n">
-        <v>267.24</v>
+        <v>1617.34</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>rfoalbr</t>
+          <t>rf9825</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>418</v>
+        <v>954</v>
       </c>
       <c r="C286" t="n">
-        <v>161.61</v>
+        <v>94.37</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>rfodeloy</t>
+          <t>RFOKSB96</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>14929</v>
+        <v>1492</v>
       </c>
       <c r="C287" t="n">
-        <v>3809.93</v>
+        <v>174.88</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>RFOKsB96</t>
+          <t>RFOCLARK</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1267</v>
+        <v>7401</v>
       </c>
       <c r="C288" t="n">
-        <v>118.04</v>
+        <v>2102.32</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>RFOSTEVE</t>
+          <t>ksc146</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>9983</v>
+        <v>880</v>
       </c>
       <c r="C289" t="n">
-        <v>2637.88</v>
+        <v>432.56</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>rfoscott</t>
+          <t>rf928</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>19061</v>
+        <v>25</v>
       </c>
       <c r="C290" t="n">
-        <v>4479.94</v>
+        <v>151.42</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>rfoksb02</t>
+          <t>rfobarte</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2313</v>
+        <v>1766</v>
       </c>
       <c r="C291" t="n">
-        <v>291.92</v>
+        <v>179.12</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>RWOOLE</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2853</v>
+        <v>220</v>
       </c>
       <c r="C292" t="n">
-        <v>2453.32</v>
+        <v>1404.25</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>rf0marqu</t>
+          <t>griff</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2883</v>
+        <v>8</v>
       </c>
       <c r="C293" t="n">
-        <v>626.15</v>
+        <v>138.32</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>rfkbrada</t>
+          <t>rbfoksb159</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2046</v>
+        <v>1898</v>
       </c>
       <c r="C294" t="n">
-        <v>388.17</v>
+        <v>375.39</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>rfoksc144</t>
+          <t>RFOKSB007</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2821</v>
+        <v>262</v>
       </c>
       <c r="C295" t="n">
-        <v>1030.58</v>
+        <v>35.13</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>rfoksc121</t>
+          <t>rfohodgee</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="C296" t="n">
-        <v>83.84999999999999</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>omilam</t>
+          <t>rfomcfad</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2484</v>
+        <v>21583</v>
       </c>
       <c r="C297" t="n">
-        <v>245.32</v>
+        <v>9292.450000000001</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RFOBRECH</t>
+          <t>Rfoksb74</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>3129</v>
+        <v>172</v>
       </c>
       <c r="C298" t="n">
-        <v>851.1799999999999</v>
+        <v>163.94</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>rfoksc108</t>
+          <t>rfoconklc</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>3224</v>
+        <v>11015</v>
       </c>
       <c r="C299" t="n">
-        <v>906.9400000000001</v>
+        <v>3251.65</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>MAZa</t>
+          <t>B890</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1218</v>
+        <v>3439</v>
       </c>
       <c r="C300" t="n">
-        <v>1029.97</v>
+        <v>1681.36</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>hy</t>
+          <t>RFOKSB005</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>56</v>
+        <v>430</v>
       </c>
       <c r="C301" t="n">
-        <v>150.94</v>
+        <v>221.67</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>rfomcfad</t>
+          <t>RFOKSC340</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>21583</v>
+        <v>1475</v>
       </c>
       <c r="C302" t="n">
-        <v>9292.450000000001</v>
+        <v>1561.58</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Rfoc991</t>
+          <t>rfofish</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1743</v>
+        <v>9011</v>
       </c>
       <c r="C303" t="n">
-        <v>238.61</v>
+        <v>2143.15</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>RFOKSC340</t>
+          <t>rfohamil</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1475</v>
+        <v>14789</v>
       </c>
       <c r="C304" t="n">
-        <v>1561.58</v>
+        <v>3188.349999999999</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>rfkgloe</t>
+          <t>rfoksc852</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C305" t="n">
-        <v>69.59999999999999</v>
+        <v>105.23</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>RFOFRANK</t>
+          <t>RFOKSB063</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>3467</v>
+        <v>1502</v>
       </c>
       <c r="C306" t="n">
-        <v>1571.13</v>
+        <v>922.28</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>rfohorne</t>
+          <t>BGUSER</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>11205</v>
+        <v>1559</v>
       </c>
       <c r="C307" t="n">
-        <v>4949.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>rfokb03</t>
+          <t>rfodemar</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>691</v>
+        <v>11669</v>
       </c>
       <c r="C308" t="n">
-        <v>89.20999999999999</v>
+        <v>3224.79</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>rfoksa031</t>
+          <t>ShiftrShiftfShiftkShiftlShiftuShiftnShiftdShiftb</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>4229</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>503.24</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>RFOPELSO</t>
+          <t>rfosc0ovi</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2124</v>
+        <v>682</v>
       </c>
       <c r="C310" t="n">
-        <v>646.8699999999999</v>
+        <v>200.61</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>rfoksc379</t>
+          <t>mrb</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>755</v>
+        <v>6</v>
       </c>
       <c r="C311" t="n">
-        <v>246.95</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Rfogilbek</t>
+          <t>rfohodg</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C312" t="n">
-        <v>93.39</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>rfotaylo</t>
+          <t>RFOHORNE</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2728</v>
+        <v>7327</v>
       </c>
       <c r="C313" t="n">
-        <v>683.11</v>
+        <v>1169.28</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>rfoswaey</t>
+          <t>rfostre</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2549</v>
+        <v>171</v>
       </c>
       <c r="C314" t="n">
-        <v>939.6299999999999</v>
+        <v>105.14</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>rfoscovi</t>
+          <t>RFOKSB216</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>18020</v>
+        <v>9981</v>
       </c>
       <c r="C315" t="n">
-        <v>5152.39</v>
+        <v>2595.15</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>RFOKB96</t>
+          <t>rfoksb686</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>261</v>
+        <v>15095</v>
       </c>
       <c r="C316" t="n">
-        <v>227.83</v>
+        <v>3332.84</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>rfoevils</t>
+          <t>rfotfarr</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>263</v>
+        <v>10153</v>
       </c>
       <c r="C317" t="n">
-        <v>137.75</v>
+        <v>3222.72</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>RFOKSB94</t>
+          <t>Rfoksc174</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>327</v>
+        <v>4513</v>
       </c>
       <c r="C318" t="n">
-        <v>105.81</v>
+        <v>765.22</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>RFOSTIFT</t>
+          <t>ashm</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>626</v>
+        <v>90</v>
       </c>
       <c r="C319" t="n">
-        <v>898.87</v>
+        <v>212.12</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>rfkksb167</t>
+          <t>linsj</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="C320" t="n">
-        <v>221.8</v>
+        <v>234.97</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>rfobech</t>
+          <t>RFOSKB974</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>325</v>
+        <v>908</v>
       </c>
       <c r="C321" t="n">
-        <v>73.06999999999999</v>
+        <v>910.3200000000001</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>rfohodge</t>
+          <t>rfoksln</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>809</v>
+        <v>441</v>
       </c>
       <c r="C322" t="n">
-        <v>961.8</v>
+        <v>168.14</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>rf7790</t>
+          <t>RFOKSB044</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>616</v>
+        <v>486</v>
       </c>
       <c r="C323" t="n">
-        <v>144.51</v>
+        <v>256.7</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>rfhopki</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>80</v>
+        <v>7753</v>
       </c>
       <c r="C324" t="n">
-        <v>133.61</v>
+        <v>1813.25</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>rfoksc903</t>
+          <t>rfoherri</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>955</v>
+        <v>201</v>
       </c>
       <c r="C325" t="n">
-        <v>585.23</v>
+        <v>1438.15</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>rfocalla</t>
+          <t>rfoksc175</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>321</v>
+        <v>2486</v>
       </c>
       <c r="C326" t="n">
-        <v>309.76</v>
+        <v>443.93</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>RFOKSB177</t>
+          <t>rfoksc146</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1796</v>
+        <v>49</v>
       </c>
       <c r="C327" t="n">
-        <v>221.36</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>rfodmar</t>
+          <t>frorootj</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2022</v>
+        <v>97</v>
       </c>
       <c r="C328" t="n">
-        <v>275.38</v>
+        <v>153.51</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>rfojohnsj</t>
+          <t>c1003</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>989</v>
+        <v>1276</v>
       </c>
       <c r="C329" t="n">
-        <v>774.3799999999999</v>
+        <v>136.3</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>rf0319rf0319</t>
+          <t>rfogarrej</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1100</v>
+        <v>16100</v>
       </c>
       <c r="C330" t="n">
-        <v>194.84</v>
+        <v>3305.43</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>rf0319</t>
+          <t>rfkksc170</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>3996</v>
+        <v>1135</v>
       </c>
       <c r="C331" t="n">
-        <v>2507.22</v>
+        <v>620.55</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>rfoneedh</t>
+          <t>rfodeloy</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>3138</v>
+        <v>14929</v>
       </c>
       <c r="C332" t="n">
-        <v>873.8199999999999</v>
+        <v>3809.93</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>rfogarej</t>
+          <t>rfojohns</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="C333" t="n">
-        <v>37.18</v>
+        <v>195.78</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>rfokc179</t>
+          <t>rf0marqu</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1132</v>
+        <v>2883</v>
       </c>
       <c r="C334" t="n">
-        <v>108.02</v>
+        <v>626.15</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>rfodely</t>
+          <t>rfkksc166</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1205</v>
+        <v>3368</v>
       </c>
       <c r="C335" t="n">
-        <v>253.99</v>
+        <v>489.92</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>rf0322</t>
+          <t>RFOCOOK</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>2403</v>
+        <v>1783</v>
       </c>
       <c r="C336" t="n">
-        <v>428.37</v>
+        <v>3074.54</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>fokb95</t>
+          <t>rf0252rf0252rfoconusarfoconusarfoconus</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>8</v>
+        <v>1094</v>
       </c>
       <c r="C337" t="n">
-        <v>187.02</v>
+        <v>105.01</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>froksa252</t>
+          <t>rfokible</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>478</v>
+        <v>8021</v>
       </c>
       <c r="C338" t="n">
-        <v>43.18</v>
+        <v>3079.13</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Rfkksb369</t>
+          <t>long</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1987</v>
+        <v>2017</v>
       </c>
       <c r="C339" t="n">
-        <v>1635.76</v>
+        <v>1682.59</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>rfoksa246</t>
+          <t>rfoksc014</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>13723</v>
+        <v>8870</v>
       </c>
       <c r="C340" t="n">
-        <v>1584.25</v>
+        <v>1709.26</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>rfksb65</t>
+          <t>rf0206</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1127</v>
+        <v>254</v>
       </c>
       <c r="C341" t="n">
-        <v>278.74</v>
+        <v>111.56</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>RFOKSB167</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>879</v>
       </c>
       <c r="C342" t="n">
-        <v>32.7</v>
+        <v>332.72</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>rfowichmrfowich</t>
+          <t>rfkksb167</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C343" t="n">
-        <v>169.1</v>
+        <v>221.8</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>rfodolla</t>
+          <t>Rfoc991</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>117</v>
+        <v>1743</v>
       </c>
       <c r="C344" t="n">
-        <v>234.55</v>
+        <v>238.61</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Rfoksa31</t>
+          <t>rfoksb372</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1151</v>
+        <v>2360</v>
       </c>
       <c r="C345" t="n">
-        <v>174.99</v>
+        <v>325.24</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>rfomarqu</t>
+          <t>rfoksa028</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>20916</v>
+        <v>18772</v>
       </c>
       <c r="C346" t="n">
-        <v>6931.179999999999</v>
+        <v>3961.35</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>RFOWOOLE</t>
+          <t>rfoconusa</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>7488</v>
+        <v>15111</v>
       </c>
       <c r="C347" t="n">
-        <v>6235.19</v>
+        <v>5681.460000000001</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>weiga</t>
+          <t>RFOFISH</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>9706</v>
+        <v>2403</v>
       </c>
       <c r="C348" t="n">
-        <v>14820.64</v>
+        <v>305.05</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>RFOkSB177</t>
+          <t>rfkksc149</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>962</v>
+        <v>1342</v>
       </c>
       <c r="C349" t="n">
-        <v>1406.62</v>
+        <v>177.94</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ShiftrShiftfShiftkShiftlShiftuShiftnShiftdShiftb</t>
+          <t>RFOKRATZBE</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>760</v>
       </c>
       <c r="C350" t="n">
-        <v>11.83</v>
+        <v>329.99</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>rf0342</t>
+          <t>rfkkb252</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>2519</v>
+        <v>508</v>
       </c>
       <c r="C351" t="n">
-        <v>729.7100000000002</v>
+        <v>146.06</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>rfocallla</t>
+          <t>rfohill</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>103</v>
+        <v>342</v>
       </c>
       <c r="C352" t="n">
-        <v>124.3</v>
+        <v>267.16</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>bg5</t>
+          <t>foksb965</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>31</v>
+        <v>869</v>
       </c>
       <c r="C353" t="n">
-        <v>36.59</v>
+        <v>492.42</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MAZZ</t>
+          <t>rf0027</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2918</v>
+        <v>944</v>
       </c>
       <c r="C354" t="n">
-        <v>332.09</v>
+        <v>718.4399999999998</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RFOHERRI</t>
+          <t>RFOKSB087</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>3430</v>
+        <v>6048</v>
       </c>
       <c r="C355" t="n">
-        <v>1879.36</v>
+        <v>1510.43</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>rfoopi</t>
+          <t>rfoconus</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>184</v>
+        <v>2063</v>
       </c>
       <c r="C356" t="n">
-        <v>179.71</v>
+        <v>932.3599999999999</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>rfodoty</t>
+          <t>rfoksa080</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1106</v>
+        <v>5253</v>
       </c>
       <c r="C357" t="n">
-        <v>570.78</v>
+        <v>1406.83</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>rfojstep</t>
+          <t>RFOCONsA</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1630</v>
+        <v>56</v>
       </c>
       <c r="C358" t="n">
-        <v>543.9300000000001</v>
+        <v>84.05</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Froksc991</t>
+          <t>joserine</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>250</v>
+        <v>4078</v>
       </c>
       <c r="C359" t="n">
-        <v>27.87</v>
+        <v>785.33</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>rfoksa252</t>
+          <t>RFKKSB352</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>5379</v>
+        <v>7281</v>
       </c>
       <c r="C360" t="n">
-        <v>1336.77</v>
+        <v>2009.11</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>rfoksc135</t>
+          <t>rfobaluc</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>2273</v>
+        <v>3113</v>
       </c>
       <c r="C361" t="n">
-        <v>1266.43</v>
+        <v>1099.08</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ksc146</t>
+          <t>RFKMANN</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>880</v>
+        <v>221</v>
       </c>
       <c r="C362" t="n">
-        <v>432.56</v>
+        <v>361.62</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>RFOKSB983</t>
+          <t>rfoksa148</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>103</v>
+        <v>14032</v>
       </c>
       <c r="C363" t="n">
-        <v>173.89</v>
+        <v>1497.7</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>RFKKSB113</t>
+          <t>rfopefo</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>12910</v>
+        <v>1165</v>
       </c>
       <c r="C364" t="n">
-        <v>2959.17</v>
+        <v>195.41</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>rfkksb252</t>
+          <t>rfoschmu</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>10941</v>
+        <v>1529</v>
       </c>
       <c r="C365" t="n">
-        <v>4343.21</v>
+        <v>714.5</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>rfodmoor</t>
+          <t>rfoksb97</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1064</v>
+        <v>583</v>
       </c>
       <c r="C366" t="n">
-        <v>12110.19</v>
+        <v>109.94</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>rfothompb</t>
+          <t>rfosheaf</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>4</v>
+        <v>9115</v>
       </c>
       <c r="C367" t="n">
-        <v>60.32</v>
+        <v>3678.26</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>rfoklan</t>
+          <t>rfoksc532</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>189</v>
+        <v>4565</v>
       </c>
       <c r="C368" t="n">
-        <v>33.9</v>
+        <v>459.48</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>RFOKSC554</t>
+          <t>rfostif</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>6124</v>
+        <v>1744</v>
       </c>
       <c r="C369" t="n">
-        <v>1239.08</v>
+        <v>426.67</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>rf928</t>
+          <t>rfomila</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>25</v>
+        <v>1977</v>
       </c>
       <c r="C370" t="n">
-        <v>151.42</v>
+        <v>374.67</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>rf0hamil</t>
+          <t>TURNEM</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>7</v>
+        <v>1269</v>
       </c>
       <c r="C371" t="n">
-        <v>137.49</v>
+        <v>413.12</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>rfofrank</t>
+          <t>rfotalib</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>3362</v>
+        <v>13596</v>
       </c>
       <c r="C372" t="n">
-        <v>1654.93</v>
+        <v>6917.02</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>rfoksa039</t>
+          <t>ashmom</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>24665</v>
+        <v>5367</v>
       </c>
       <c r="C373" t="n">
-        <v>3296.43</v>
+        <v>1533.97</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>rf7821</t>
+          <t>rfocecr</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>549</v>
+        <v>2469</v>
       </c>
       <c r="C374" t="n">
-        <v>273.81</v>
+        <v>500.09</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>RFOKSBrfoksb164</t>
+          <t>RFOKSB311</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1151</v>
+        <v>886</v>
       </c>
       <c r="C375" t="n">
-        <v>477.32</v>
+        <v>318.43</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ashmom</t>
+          <t>rfoksc396</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>5367</v>
+        <v>4636</v>
       </c>
       <c r="C376" t="n">
-        <v>1533.97</v>
+        <v>1108.31</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>rfoksb215</t>
+          <t>RFOCHAN</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>4281</v>
+        <v>275</v>
       </c>
       <c r="C377" t="n">
-        <v>1585.4</v>
+        <v>657.25</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RFOFRANC</t>
+          <t>rfoks161</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>13557</v>
+        <v>1453</v>
       </c>
       <c r="C378" t="n">
-        <v>3941.72</v>
+        <v>476.8</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>rfoksa03</t>
+          <t>rfoksc026</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>3933</v>
+        <v>19340</v>
       </c>
       <c r="C379" t="n">
-        <v>318.59</v>
+        <v>3408.75</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>rfotalob</t>
+          <t>froksa252</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1389</v>
+        <v>478</v>
       </c>
       <c r="C380" t="n">
-        <v>285.16</v>
+        <v>43.18</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>RFOCOOK</t>
+          <t>00</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1783</v>
+        <v>2982</v>
       </c>
       <c r="C381" t="n">
-        <v>3074.54</v>
+        <v>1685.69</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RFoTURNEM</t>
+          <t>rftalib</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>73.38</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>RFODISCHERT</t>
+          <t>rf0ks11</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>5983</v>
+        <v>182</v>
       </c>
       <c r="C383" t="n">
-        <v>1287.72</v>
+        <v>229.45</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SURRe</t>
+          <t>rfobrech</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>287</v>
+        <v>15684</v>
       </c>
       <c r="C384" t="n">
-        <v>109.31</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>c175</t>
+          <t>RFOkSB177</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>6759</v>
+        <v>962</v>
       </c>
       <c r="C385" t="n">
-        <v>2208.1</v>
+        <v>1406.62</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>rfoksb955</t>
+          <t>rfksb965</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1660</v>
+        <v>1198</v>
       </c>
       <c r="C386" t="n">
-        <v>1478.18</v>
+        <v>459.54</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>rfohopki</t>
+          <t>RFOTALIB</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>727</v>
+        <v>986</v>
       </c>
       <c r="C387" t="n">
-        <v>571.3699999999999</v>
+        <v>744.97</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>rfoc4[</t>
+          <t>rfkscottd</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>408</v>
+        <v>13920</v>
       </c>
       <c r="C388" t="n">
-        <v>358.88</v>
+        <v>4599.299999999999</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>rfoksa028</t>
+          <t>MAZZA</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>18772</v>
+        <v>32696</v>
       </c>
       <c r="C389" t="n">
-        <v>3961.35</v>
+        <v>9528.960000000001</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>rfohumph</t>
+          <t>rfoksbb004</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>3532</v>
+        <v>7</v>
       </c>
       <c r="C390" t="n">
-        <v>857.7199999999999</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>rf0395</t>
+          <t>RFOLAL</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1552</v>
+        <v>23</v>
       </c>
       <c r="C391" t="n">
-        <v>312.13</v>
+        <v>1352.42</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>RATLI</t>
+          <t>rfksb65</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>12116</v>
+        <v>1127</v>
       </c>
       <c r="C392" t="n">
-        <v>4235.36</v>
+        <v>278.74</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>rfoksc071</t>
+          <t>rf9743</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>4656</v>
+        <v>741</v>
       </c>
       <c r="C393" t="n">
-        <v>1425.26</v>
+        <v>203.15</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>rfomiam</t>
+          <t>RFKKSB113</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3405</v>
+        <v>12910</v>
       </c>
       <c r="C394" t="n">
-        <v>1461.7</v>
+        <v>2959.17</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Rfksc174</t>
+          <t>Rfoksa31</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>767</v>
+        <v>1151</v>
       </c>
       <c r="C395" t="n">
-        <v>243.42</v>
+        <v>174.99</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>RFOKSB216</t>
+          <t>rfopelso</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>9981</v>
+        <v>3641</v>
       </c>
       <c r="C396" t="n">
-        <v>2595.15</v>
+        <v>2228.57</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>rfkcottd</t>
+          <t>RFOGILBE</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1696</v>
+        <v>11695</v>
       </c>
       <c r="C397" t="n">
-        <v>226.13</v>
+        <v>3498.070000000001</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>RFOKB212</t>
+          <t>rfostewap</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>838</v>
+        <v>883</v>
       </c>
       <c r="C398" t="n">
-        <v>390.53</v>
+        <v>413.11</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>RFOWICHM</t>
+          <t>bt</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="C399" t="n">
-        <v>481.84</v>
+        <v>1124.22</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>rfoksa009</t>
+          <t>rfoclark</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>3876</v>
+        <v>8869</v>
       </c>
       <c r="C400" t="n">
-        <v>549.64</v>
+        <v>1670.81</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>rfosilvet</t>
+          <t>JONESZA</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>15224</v>
+        <v>9134</v>
       </c>
       <c r="C401" t="n">
-        <v>3379.17</v>
+        <v>3739.61</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Rtkksb369</t>
+          <t>rfojstep</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1063</v>
+        <v>1630</v>
       </c>
       <c r="C402" t="n">
-        <v>135.51</v>
+        <v>543.9300000000001</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>froruizord</t>
+          <t>rfoksc108</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>537</v>
+        <v>3224</v>
       </c>
       <c r="C403" t="n">
-        <v>230.86</v>
+        <v>906.9400000000001</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>rfoksc177</t>
+          <t>rforhode</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>10117</v>
+        <v>13141</v>
       </c>
       <c r="C404" t="n">
-        <v>1901.6</v>
+        <v>5501.949999999998</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>rfosand</t>
+          <t>rfosands</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>235</v>
+        <v>5394</v>
       </c>
       <c r="C405" t="n">
-        <v>76.24000000000001</v>
+        <v>2268.51</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>rfoksb170</t>
+          <t>rf0319</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>2771</v>
+        <v>3996</v>
       </c>
       <c r="C406" t="n">
-        <v>720.6700000000001</v>
+        <v>2507.22</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>rfoksc532</t>
+          <t>hy</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>4565</v>
+        <v>56</v>
       </c>
       <c r="C407" t="n">
-        <v>459.48</v>
+        <v>150.94</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>rfoksc178</t>
+          <t>RFOFRANC</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>24</v>
+        <v>13557</v>
       </c>
       <c r="C408" t="n">
-        <v>128.9</v>
+        <v>3941.72</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>rf0321</t>
+          <t>harry</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>5671</v>
+        <v>2</v>
       </c>
       <c r="C409" t="n">
-        <v>3241.3</v>
+        <v>103.46</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>rfohart</t>
+          <t>joserie</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1459</v>
+        <v>156</v>
       </c>
       <c r="C410" t="n">
-        <v>398.95</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>rfocous</t>
+          <t>rofboye</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C411" t="n">
-        <v>200.62</v>
+        <v>45.46</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>rfkscottd</t>
+          <t>RFOARTE</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>13920</v>
+        <v>250</v>
       </c>
       <c r="C412" t="n">
-        <v>4599.3</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>rfojohns</t>
+          <t>k</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="C413" t="n">
-        <v>195.78</v>
+        <v>254.29</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>rfotalib</t>
+          <t>RFKCINAD</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>13596</v>
+        <v>73</v>
       </c>
       <c r="C414" t="n">
-        <v>6917.019999999999</v>
+        <v>219.22</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>rfoschmu</t>
+          <t>rfoks002</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1529</v>
+        <v>553</v>
       </c>
       <c r="C415" t="n">
-        <v>714.5</v>
+        <v>405.01</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>rfoksc379</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>22117</v>
+        <v>755</v>
       </c>
       <c r="C416" t="n">
-        <v>6078.48</v>
+        <v>246.95</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>mh</t>
+          <t>RFOKSC379</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>6748</v>
+        <v>2088</v>
       </c>
       <c r="C417" t="n">
-        <v>3018.7</v>
+        <v>306.38</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>rfoemar</t>
+          <t>rfhopki</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="C418" t="n">
-        <v>162.34</v>
+        <v>133.61</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>rfobrada</t>
+          <t>RFOKSB49</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>2787</v>
+        <v>1217</v>
       </c>
       <c r="C419" t="n">
-        <v>1917.43</v>
+        <v>169.22</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>rfoksc174</t>
+          <t>Rfoksc135</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>2945</v>
+        <v>2563</v>
       </c>
       <c r="C420" t="n">
-        <v>675.95</v>
+        <v>238.55</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>c1003</t>
+          <t>rfkbrada</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1276</v>
+        <v>2046</v>
       </c>
       <c r="C421" t="n">
-        <v>136.3</v>
+        <v>388.17</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>rfoks041</t>
+          <t>m</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>211</v>
+        <v>1020</v>
       </c>
       <c r="C422" t="n">
-        <v>58.29</v>
+        <v>351.79</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>rfoksco26</t>
+          <t>weiga</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>8</v>
+        <v>9706</v>
       </c>
       <c r="C423" t="n">
-        <v>41.56</v>
+        <v>14820.64</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>rfoparke</t>
+          <t>rfoksb234</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>5354</v>
+        <v>192</v>
       </c>
       <c r="C424" t="n">
-        <v>2270.75</v>
+        <v>122.74</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Rfoksc991</t>
+          <t>MCDOW</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>9008</v>
+        <v>2717</v>
       </c>
       <c r="C425" t="n">
-        <v>1596.5</v>
+        <v>952.24</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>rfoksc226</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>2017</v>
+        <v>672</v>
       </c>
       <c r="C426" t="n">
-        <v>1682.59</v>
+        <v>140.93</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>rfomedlo</t>
+          <t>rfokc919</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>3778</v>
+        <v>1288</v>
       </c>
       <c r="C427" t="n">
-        <v>848.24</v>
+        <v>273.36</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>rfobrada</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1699</v>
+        <v>2787</v>
       </c>
       <c r="C428" t="n">
-        <v>207.84</v>
+        <v>1917.43</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>RFOMART</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>26</v>
+        <v>441</v>
       </c>
       <c r="C429" t="n">
-        <v>254.29</v>
+        <v>101.71</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>RFKCINAD</t>
+          <t>rtokible</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="C430" t="n">
-        <v>219.22</v>
+        <v>195.47</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>rfoksb354</t>
+          <t>rfohart</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>2198</v>
+        <v>1459</v>
       </c>
       <c r="C431" t="n">
-        <v>1572.68</v>
+        <v>398.95</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>rfoksb803</t>
+          <t>rfoks041</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>13893</v>
+        <v>211</v>
       </c>
       <c r="C432" t="n">
-        <v>4721.139999999999</v>
+        <v>58.29</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>rf0ks61</t>
+          <t>rfogeiss</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>347</v>
+        <v>185</v>
       </c>
       <c r="C433" t="n">
-        <v>80.18000000000001</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>rf035</t>
+          <t>dickey</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1940</v>
+        <v>6129</v>
       </c>
       <c r="C434" t="n">
-        <v>316.22</v>
+        <v>2613.01</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>rf0255</t>
+          <t>rfoksb9</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>8491</v>
+        <v>895</v>
       </c>
       <c r="C435" t="n">
-        <v>1179.45</v>
+        <v>207.65</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>rf994</t>
+          <t>rfklund</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>55.36</v>
+        <v>141.34</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RFOKSB007</t>
+          <t>rf9946</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>262</v>
+        <v>6971</v>
       </c>
       <c r="C437" t="n">
-        <v>35.13</v>
+        <v>2023.88</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>rfmilam</t>
+          <t>rfomiam</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>714</v>
+        <v>3405</v>
       </c>
       <c r="C438" t="n">
-        <v>254.23</v>
+        <v>1461.7</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>rfoksc520</t>
+          <t>rfokb03</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>2592</v>
+        <v>691</v>
       </c>
       <c r="C439" t="n">
-        <v>405.34</v>
+        <v>89.20999999999999</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>rfoksb97</t>
+          <t>rfomaqu</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>583</v>
+        <v>1572</v>
       </c>
       <c r="C440" t="n">
-        <v>109.94</v>
+        <v>229.78</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>rfomaqu</t>
+          <t>RFOFRANK</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1572</v>
+        <v>3467</v>
       </c>
       <c r="C441" t="n">
-        <v>229.78</v>
+        <v>1571.13</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>rfoksa179</t>
+          <t>c1001</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>332</v>
+        <v>2692</v>
       </c>
       <c r="C442" t="n">
-        <v>98.58</v>
+        <v>667.87</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>rfobate</t>
+          <t>rforuizord</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1227</v>
+        <v>3776</v>
       </c>
       <c r="C443" t="n">
-        <v>404.3</v>
+        <v>1016.44</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>rfooge</t>
+          <t>rfoksla</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="C444" t="n">
-        <v>170.05</v>
+        <v>196.86</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>rf9879</t>
+          <t>rfohode</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>10194</v>
+        <v>54</v>
       </c>
       <c r="C445" t="n">
-        <v>3392.53</v>
+        <v>113.9</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>B881</t>
+          <t>RFOKSB183</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>4</v>
+        <v>3163</v>
       </c>
       <c r="C446" t="n">
-        <v>215.73</v>
+        <v>1231.08</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>cfoksc177</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>7753</v>
+        <v>1901</v>
       </c>
       <c r="C447" t="n">
-        <v>1813.25</v>
+        <v>244.94</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>tfoghart</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1217</v>
+        <v>43</v>
       </c>
       <c r="C448" t="n">
-        <v>496.25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RfOMCINTB</t>
+          <t>rfocalla</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>536</v>
+        <v>321</v>
       </c>
       <c r="C449" t="n">
-        <v>73.87</v>
+        <v>309.76</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>rfosb955</t>
+          <t>rfoalbr</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>2148</v>
+        <v>418</v>
       </c>
       <c r="C450" t="n">
-        <v>198.07</v>
+        <v>161.61</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>rfkparke</t>
+          <t>rfostev</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>4046</v>
+        <v>883</v>
       </c>
       <c r="C451" t="n">
-        <v>2684.319999999999</v>
+        <v>2525.34</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>rfobarte</t>
+          <t>rfoksc144</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1766</v>
+        <v>2821</v>
       </c>
       <c r="C452" t="n">
-        <v>179.12</v>
+        <v>1030.58</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>dickey</t>
+          <t>SHAPI</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>6129</v>
+        <v>1040</v>
       </c>
       <c r="C453" t="n">
-        <v>2613.01</v>
+        <v>287.47</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>rfohodgee</t>
+          <t>rfoksb803</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>74</v>
+        <v>13893</v>
       </c>
       <c r="C454" t="n">
-        <v>31.34</v>
+        <v>4721.139999999999</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>rfobutle3</t>
+          <t>rf8107</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>15211</v>
+        <v>3883</v>
       </c>
       <c r="C455" t="n">
-        <v>3289.97</v>
+        <v>621.87</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RFKKSB352</t>
+          <t>rfomarqu</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>7281</v>
+        <v>20916</v>
       </c>
       <c r="C456" t="n">
-        <v>2009.11</v>
+        <v>6931.179999999999</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>rfoksb373</t>
+          <t>bg</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>5941</v>
+        <v>663</v>
       </c>
       <c r="C457" t="n">
-        <v>1281.47</v>
+        <v>1047.23</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>rfostewap</t>
+          <t>rfoboye</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>883</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>413.11</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>rfoschwa</t>
+          <t>rfoksb004</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>9815</v>
+        <v>9380</v>
       </c>
       <c r="C459" t="n">
-        <v>3834.85</v>
+        <v>2245.07</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RFOKSB999</t>
+          <t>rfkglive</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>847</v>
+        <v>278</v>
       </c>
       <c r="C460" t="n">
-        <v>725.2900000000001</v>
+        <v>97.38</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>rfofran</t>
+          <t>ffostree</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="C461" t="n">
-        <v>744.0699999999999</v>
+        <v>178.85</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>rfpjohnj</t>
+          <t>RFOBATE</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>520</v>
+        <v>235</v>
       </c>
       <c r="C462" t="n">
-        <v>410.93</v>
+        <v>165.07</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>rfpetfo</t>
+          <t>rfocous</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C463" t="n">
-        <v>215.32</v>
+        <v>200.62</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>rf7910</t>
+          <t>RFOCARSOS</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>8</v>
+        <v>10687</v>
       </c>
       <c r="C464" t="n">
-        <v>47.17</v>
+        <v>4989.300000000001</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>bg</t>
+          <t>rfowolke</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>663</v>
+        <v>295</v>
       </c>
       <c r="C465" t="n">
-        <v>1047.23</v>
+        <v>184.01</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RFOGILBEK</t>
+          <t>RFOKLEIB</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>5733</v>
+        <v>1072</v>
       </c>
       <c r="C466" t="n">
-        <v>1706.81</v>
+        <v>7819.41</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>rfksb965</t>
+          <t>EDWAR</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1198</v>
+        <v>2592</v>
       </c>
       <c r="C467" t="n">
-        <v>459.54</v>
+        <v>947.72</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>rfoniver</t>
+          <t>RFOKSB164</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>12082</v>
+        <v>7164</v>
       </c>
       <c r="C468" t="n">
-        <v>2673.79</v>
+        <v>1208.6</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>roks159</t>
+          <t>MAZZ</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>888</v>
+        <v>2918</v>
       </c>
       <c r="C469" t="n">
-        <v>146.92</v>
+        <v>332.09</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>rf9968</t>
+          <t>rfoksb129</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>273</v>
+        <v>2131</v>
       </c>
       <c r="C470" t="n">
-        <v>160.49</v>
+        <v>390.56</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>clarkh</t>
+          <t>mharb</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C471" t="n">
-        <v>141.32</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>rf025</t>
+          <t>rfochan</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>6352</v>
+        <v>4</v>
       </c>
       <c r="C472" t="n">
-        <v>1977.82</v>
+        <v>301.15</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Rfoksc135</t>
+          <t>RFOPELSO</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>2563</v>
+        <v>2124</v>
       </c>
       <c r="C473" t="n">
-        <v>238.55</v>
+        <v>646.87</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>rfoskb974</t>
+          <t>rfoksc041</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>7272</v>
       </c>
       <c r="C474" t="n">
-        <v>63.25</v>
+        <v>1522.46</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RFOKSB311</t>
+          <t>rf987</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="C475" t="n">
-        <v>318.43</v>
+        <v>612.9699999999999</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>rfotfarr</t>
+          <t>rfohopi</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>10153</v>
+        <v>27</v>
       </c>
       <c r="C476" t="n">
-        <v>3222.72</v>
+        <v>329.84</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>rfkksc377</t>
+          <t>RFOCONUSA</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>6548</v>
+        <v>6502</v>
       </c>
       <c r="C477" t="n">
-        <v>1463.73</v>
+        <v>1433.05</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>rfkksc170</t>
+          <t>rfoander</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1135</v>
+        <v>5263</v>
       </c>
       <c r="C478" t="n">
-        <v>620.55</v>
+        <v>1978.41</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>rfopefo</t>
+          <t>rfobalucan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1165</v>
+        <v>5584</v>
       </c>
       <c r="C479" t="n">
-        <v>195.41</v>
+        <v>1567.04</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>rfoshumph</t>
+          <t>rfoksc999</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1008</v>
+        <v>6462</v>
       </c>
       <c r="C480" t="n">
-        <v>105.14</v>
+        <v>1592.87</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>rfoksb161</t>
+          <t>SURRe</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>3588</v>
+        <v>287</v>
       </c>
       <c r="C481" t="n">
-        <v>1092.16</v>
+        <v>109.31</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RFORUIZORD</t>
+          <t>rf9759</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>2359</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>1850.86</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RFODOTY</t>
+          <t>rfolindsj</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>421</v>
+        <v>3343</v>
       </c>
       <c r="C483" t="n">
-        <v>321.03</v>
+        <v>735.21</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RFOKSB063</t>
+          <t>rfomcalp</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1502</v>
+        <v>14025</v>
       </c>
       <c r="C484" t="n">
-        <v>922.28</v>
+        <v>4236.82</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>rfospark</t>
+          <t>rfofran</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>8641</v>
+        <v>704</v>
       </c>
       <c r="C485" t="n">
-        <v>2471.01</v>
+        <v>744.0699999999999</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>rfs9sb965</t>
+          <t>rf0358</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C486" t="n">
-        <v>170.04</v>
+        <v>267.24</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RFOARTE</t>
+          <t>ku</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>250</v>
+        <v>4714</v>
       </c>
       <c r="C487" t="n">
-        <v>35.54</v>
+        <v>843.9300000000001</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>weig</t>
+          <t>r</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="C488" t="n">
-        <v>398.08</v>
+        <v>1059.4</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>rf7902</t>
+          <t>rfoshumph</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>104</v>
+        <v>1008</v>
       </c>
       <c r="C489" t="n">
-        <v>16.44</v>
+        <v>105.14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>rfoksb004</t>
+          <t>SURRE</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>9380</v>
+        <v>324</v>
       </c>
       <c r="C490" t="n">
-        <v>2245.07</v>
+        <v>45.35</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>surr</t>
+          <t>rf9879</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>544</v>
+        <v>10194</v>
       </c>
       <c r="C491" t="n">
-        <v>80.81999999999999</v>
+        <v>3392.53</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>rfoass</t>
+          <t>rf0311</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>618</v>
+        <v>441</v>
       </c>
       <c r="C492" t="n">
-        <v>334.82</v>
+        <v>50.03</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RFOKSB967</t>
+          <t>rfokrarzbe</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>3082</v>
+        <v>862</v>
       </c>
       <c r="C493" t="n">
-        <v>697.8</v>
+        <v>171.62</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>rfoksb372</t>
+          <t>rfocass</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>2360</v>
+        <v>7534</v>
       </c>
       <c r="C494" t="n">
-        <v>325.24</v>
+        <v>3114.25</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>rfofranc</t>
+          <t>rfoks902</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>809</v>
+        <v>1414</v>
       </c>
       <c r="C495" t="n">
-        <v>382.99</v>
+        <v>452.25</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>rfoksb974</t>
+          <t>rfkchan</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>3571</v>
+        <v>1053</v>
       </c>
       <c r="C496" t="n">
-        <v>1238.89</v>
+        <v>1027.39</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>rfoksb212</t>
+          <t>rfoksc177</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>323</v>
+        <v>10117</v>
       </c>
       <c r="C497" t="n">
-        <v>153.15</v>
+        <v>1901.6</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>rfoksb865</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>6950</v>
+        <v>1699</v>
       </c>
       <c r="C498" t="n">
-        <v>595.9</v>
+        <v>207.84</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>ashom</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>2982</v>
+        <v>58</v>
       </c>
       <c r="C499" t="n">
-        <v>1685.69</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>rfobreh</t>
+          <t>rfoksc905</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>603</v>
+        <v>2769</v>
       </c>
       <c r="C500" t="n">
-        <v>185.96</v>
+        <v>815.67</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Rfoksa031</t>
+          <t>rfoksa031</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>15718</v>
+        <v>4229</v>
       </c>
       <c r="C501" t="n">
-        <v>2602.87</v>
+        <v>503.24</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>rfokible</t>
+          <t>rfpetfo</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>8021</v>
+        <v>109</v>
       </c>
       <c r="C502" t="n">
-        <v>3079.13</v>
+        <v>215.32</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Rfoksc097</t>
+          <t>rfoilam</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="C503" t="n">
-        <v>344.24</v>
+        <v>348.87</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>yest</t>
+          <t>RFOPIERCN</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>371</v>
+        <v>1184</v>
       </c>
       <c r="C504" t="n">
-        <v>58.39</v>
+        <v>499.52</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>rfoksb002</t>
+          <t>rfostott</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>5591</v>
+        <v>5680</v>
       </c>
       <c r="C505" t="n">
-        <v>2313.04</v>
+        <v>1115.08</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>rf8143rf8143</t>
+          <t>rf025</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>276</v>
+        <v>6352</v>
       </c>
       <c r="C506" t="n">
-        <v>36.43</v>
+        <v>1977.82</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>rfohopk</t>
+          <t>rf0ksb16</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="C507" t="n">
-        <v>193.18</v>
+        <v>146.03</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>rfoksc999</t>
+          <t>RFoMCINTB</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>6462</v>
+        <v>42</v>
       </c>
       <c r="C508" t="n">
-        <v>1592.87</v>
+        <v>75.61</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>rfoscottt</t>
+          <t>bg5</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C509" t="n">
-        <v>109.16</v>
+        <v>36.59</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>RFOJSTEP</t>
+          <t>rfjohson</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>2775</v>
+        <v>238</v>
       </c>
       <c r="C510" t="n">
-        <v>763.4299999999999</v>
+        <v>357.12</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>rfohamil</t>
+          <t>RFOPACHEC</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>14789</v>
+        <v>4979</v>
       </c>
       <c r="C511" t="n">
-        <v>3188.35</v>
+        <v>2243.62</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>rfostift</t>
+          <t>Rfoksc520</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>3755</v>
+        <v>1542</v>
       </c>
       <c r="C512" t="n">
-        <v>884.2600000000001</v>
+        <v>622.36</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>rfoshump</t>
+          <t>rf7790</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>747</v>
+        <v>616</v>
       </c>
       <c r="C513" t="n">
-        <v>111.36</v>
+        <v>144.51</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>wisnie</t>
+          <t>rfkksc226</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>330</v>
+        <v>2289</v>
       </c>
       <c r="C514" t="n">
-        <v>286.37</v>
+        <v>515.6999999999999</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>RFOKS479</t>
+          <t>rfothompb</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1790</v>
+        <v>4</v>
       </c>
       <c r="C515" t="n">
-        <v>1474.14</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>rfoksa080</t>
+          <t>rfosb965</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>5253</v>
+        <v>2472</v>
       </c>
       <c r="C516" t="n">
-        <v>1406.83</v>
+        <v>278.76</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>rfoherma</t>
+          <t>rf032</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>8688</v>
+        <v>176</v>
       </c>
       <c r="C517" t="n">
-        <v>2049.28</v>
+        <v>254.76</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ashm</t>
+          <t>rfobrec</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>90</v>
+        <v>1635</v>
       </c>
       <c r="C518" t="n">
-        <v>212.12</v>
+        <v>193.67</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>rfokiblr</t>
+          <t>rfogarej</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C519" t="n">
-        <v>32.72</v>
+        <v>37.18</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>B166</t>
+          <t>rfoboyyer</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>3560</v>
+        <v>258</v>
       </c>
       <c r="C520" t="n">
-        <v>1998.21</v>
+        <v>150.74</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>RFOKSB087</t>
+          <t>joserrine</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>6048</v>
+        <v>120</v>
       </c>
       <c r="C521" t="n">
-        <v>1510.43</v>
+        <v>324.01</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Rfoksc071</t>
+          <t>rf7713</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>2734</v>
+        <v>2369</v>
       </c>
       <c r="C522" t="n">
-        <v>383.02</v>
+        <v>1367.57</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>rfokb965</t>
+          <t>ROFSTOTT</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>2198</v>
+        <v>404</v>
       </c>
       <c r="C523" t="n">
-        <v>187.79</v>
+        <v>186.24</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>rfksc014</t>
+          <t>rfomedic</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="C524" t="n">
-        <v>160.06</v>
+        <v>139.67</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>froksa040</t>
+          <t>fokb95</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C525" t="n">
-        <v>66.2</v>
+        <v>187.02</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>rfosb965</t>
+          <t>ac175</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>2472</v>
+        <v>38</v>
       </c>
       <c r="C526" t="n">
-        <v>278.76</v>
+        <v>194.07</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>RFOKSB044</t>
+          <t>RFOBRECH</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>486</v>
+        <v>3129</v>
       </c>
       <c r="C527" t="n">
-        <v>256.7</v>
+        <v>851.1799999999999</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>rfkjohnss</t>
+          <t>rfokiblr</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>432</v>
+        <v>299</v>
       </c>
       <c r="C528" t="n">
-        <v>774.4299999999999</v>
+        <v>32.72</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>rfohorn</t>
+          <t>RFOHamil</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="C529" t="n">
-        <v>178.88</v>
+        <v>62.28</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>bg8</t>
+          <t>rfoharneb</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>475</v>
+        <v>10094</v>
       </c>
       <c r="C530" t="n">
-        <v>109.86</v>
+        <v>3331.369999999999</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>RFOJTTEP</t>
+          <t>rfohopk</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>546</v>
+        <v>6</v>
       </c>
       <c r="C531" t="n">
-        <v>483.31</v>
+        <v>193.18</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>rfokb405</t>
+          <t>RFORUIZORD</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>175</v>
+        <v>2359</v>
       </c>
       <c r="C532" t="n">
-        <v>66.81</v>
+        <v>1850.86</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>rfosheaf</t>
+          <t>Rfoksc991</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>9115</v>
+        <v>9008</v>
       </c>
       <c r="C533" t="n">
-        <v>3678.26</v>
+        <v>1596.5</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>rfoksb16</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>988</v>
+        <v>184</v>
       </c>
       <c r="C534" t="n">
-        <v>737.5799999999999</v>
+        <v>65.59</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>rfoswase</t>
+          <t>rfksb161</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>141</v>
+        <v>548</v>
       </c>
       <c r="C535" t="n">
-        <v>5763.1</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>rfkksc226</t>
+          <t>gilli</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>2289</v>
+        <v>12729</v>
       </c>
       <c r="C536" t="n">
-        <v>515.6999999999999</v>
+        <v>3943.23</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>rfoksc146</t>
+          <t>rfowadew</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>49</v>
+        <v>15801</v>
       </c>
       <c r="C537" t="n">
-        <v>26.83</v>
+        <v>4503.749999999999</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>rfostre</t>
+          <t>rfoksa030</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>171</v>
+        <v>6247</v>
       </c>
       <c r="C538" t="n">
-        <v>105.14</v>
+        <v>1043.31</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>rf9946</t>
+          <t>rfmilam</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>6971</v>
+        <v>714</v>
       </c>
       <c r="C539" t="n">
-        <v>2023.88</v>
+        <v>254.23</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>rf0027</t>
+          <t>rfoparke</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>944</v>
+        <v>5354</v>
       </c>
       <c r="C540" t="n">
-        <v>718.4400000000001</v>
+        <v>2270.75</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>rfoboyyer</t>
+          <t>rfoksc071</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>258</v>
+        <v>4656</v>
       </c>
       <c r="C541" t="n">
-        <v>150.74</v>
+        <v>1425.26</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>rfobrec</t>
+          <t>RFOKSB177</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1635</v>
+        <v>1796</v>
       </c>
       <c r="C542" t="n">
-        <v>193.67</v>
+        <v>221.36</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>RFOKSB003</t>
+          <t>rf0322</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>337</v>
+        <v>2403</v>
       </c>
       <c r="C543" t="n">
-        <v>95.95</v>
+        <v>428.37</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Rfoksc174</t>
+          <t>rfoksb965</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>4513</v>
+        <v>14030</v>
       </c>
       <c r="C544" t="n">
-        <v>765.22</v>
+        <v>3583.97</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>gilli</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>12729</v>
+        <v>2853</v>
       </c>
       <c r="C545" t="n">
-        <v>3943.23</v>
+        <v>2453.32</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>rfojohnssrfojohnssrfojohns</t>
+          <t>RFOSTEVE</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>26</v>
+        <v>9983</v>
       </c>
       <c r="C546" t="n">
-        <v>214.99</v>
+        <v>2637.880000000001</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>rfopelso</t>
+          <t>rf842</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>3641</v>
+        <v>116</v>
       </c>
       <c r="C547" t="n">
-        <v>2228.57</v>
+        <v>236.34</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>RFOKSB835</t>
+          <t>RFOAMART</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>310</v>
+        <v>1289</v>
       </c>
       <c r="C548" t="n">
-        <v>300.32</v>
+        <v>1128.06</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SURRE</t>
+          <t>RFOKSB967</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>324</v>
+        <v>3082</v>
       </c>
       <c r="C549" t="n">
-        <v>45.35</v>
+        <v>697.8</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>rfoksc226</t>
+          <t>froksa080</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>672</v>
+        <v>3319</v>
       </c>
       <c r="C550" t="n">
-        <v>140.93</v>
+        <v>297.08</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>rfoksb123</t>
+          <t>rfoksc178</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>485</v>
+        <v>24</v>
       </c>
       <c r="C551" t="n">
-        <v>735.2700000000001</v>
+        <v>128.9</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>rf771</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>574</v>
+        <v>1459</v>
       </c>
       <c r="C552" t="n">
-        <v>645.02</v>
+        <v>248.41</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>RFOSKB974</t>
+          <t>Rfoksb974</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="C553" t="n">
-        <v>910.3200000000001</v>
+        <v>111.07</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>RFOREA</t>
+          <t>bg8</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1994</v>
+        <v>475</v>
       </c>
       <c r="C554" t="n">
-        <v>910.55</v>
+        <v>109.86</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>rfocass</t>
+          <t>lindsj</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>7534</v>
+        <v>345</v>
       </c>
       <c r="C555" t="n">
-        <v>3114.25</v>
+        <v>195.33</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>rfoboye</t>
+          <t>rfpetf</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="C556" t="n">
-        <v>45.5</v>
+        <v>108.18</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MAzZA</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C557" t="n">
-        <v>7.48</v>
+        <v>34.63</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>rfkglove</t>
+          <t>rfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfohornerfoh</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>3999</v>
+        <v>1313</v>
       </c>
       <c r="C558" t="n">
-        <v>1801.12</v>
+        <v>117.56</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>rfowich</t>
+          <t>Rtkksb369</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>147</v>
+        <v>1063</v>
       </c>
       <c r="C559" t="n">
-        <v>64.39</v>
+        <v>135.51</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>rfoka080</t>
+          <t>a132</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1139</v>
+        <v>8400</v>
       </c>
       <c r="C560" t="n">
-        <v>174.48</v>
+        <v>1576.27</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>B890</t>
+          <t>rfocina</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>3439</v>
+        <v>881</v>
       </c>
       <c r="C561" t="n">
-        <v>1681.36</v>
+        <v>177.9</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>rfobrech</t>
+          <t>rfoklan</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>15684</v>
+        <v>189</v>
       </c>
       <c r="C562" t="n">
-        <v>3350</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>RFOPELSo</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="C563" t="n">
-        <v>593.39</v>
+        <v>55.51</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>RFOSTEWAP</t>
+          <t>rfobech</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>13938</v>
+        <v>325</v>
       </c>
       <c r="C564" t="n">
-        <v>3594.83</v>
+        <v>73.06999999999999</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>RfOHamil</t>
+          <t>RFOPACHE</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>2126</v>
+        <v>21584</v>
       </c>
       <c r="C565" t="n">
-        <v>212.88</v>
+        <v>4297.63</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>rofboyer</t>
+          <t>rfksc014</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="C566" t="n">
-        <v>18.78</v>
+        <v>160.06</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>MAZZA</t>
+          <t>rfotaylo</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>32696</v>
+        <v>2728</v>
       </c>
       <c r="C567" t="n">
-        <v>9528.960000000001</v>
+        <v>683.11</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>rfopiercn</t>
+          <t>rfomilam</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>4937</v>
+        <v>10473</v>
       </c>
       <c r="C568" t="n">
-        <v>1617.34</v>
+        <v>2169.150000000001</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>rf0ksb16</t>
+          <t>rfokb221</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>219</v>
+        <v>1620</v>
       </c>
       <c r="C569" t="n">
-        <v>146.03</v>
+        <v>336.55</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>rfopetfp</t>
+          <t>RFOBARTE</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>341</v>
+        <v>11637</v>
       </c>
       <c r="C570" t="n">
-        <v>196.64</v>
+        <v>2653.84</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>rfogarrej</t>
+          <t>g</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>16100</v>
+        <v>63</v>
       </c>
       <c r="C571" t="n">
-        <v>3305.43</v>
+        <v>99.22</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>RFOTALIB</t>
+          <t>rfoksb974</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>986</v>
+        <v>3571</v>
       </c>
       <c r="C572" t="n">
-        <v>744.97</v>
+        <v>1238.89</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>rfoksa148</t>
+          <t>rfostift</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>14032</v>
+        <v>3755</v>
       </c>
       <c r="C573" t="n">
-        <v>1497.7</v>
+        <v>884.26</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>rfolindsj</t>
+          <t>rfkparke</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>3343</v>
+        <v>4046</v>
       </c>
       <c r="C574" t="n">
-        <v>735.21</v>
+        <v>2684.32</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>linsj</t>
+          <t>rfokb215</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>317</v>
+        <v>1808</v>
       </c>
       <c r="C575" t="n">
-        <v>234.97</v>
+        <v>208.06</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>rforuizord</t>
+          <t>rfokb3</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>3776</v>
+        <v>1390</v>
       </c>
       <c r="C576" t="n">
-        <v>1016.44</v>
+        <v>274.72</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>RFOCONsA</t>
+          <t>rfomilm</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>56</v>
+        <v>2542</v>
       </c>
       <c r="C577" t="n">
-        <v>84.05</v>
+        <v>629</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>rf0311</t>
+          <t>bg6</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>441</v>
+        <v>197</v>
       </c>
       <c r="C578" t="n">
-        <v>50.03</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>rfoconklc</t>
+          <t>RFOJTTEP</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>11015</v>
+        <v>546</v>
       </c>
       <c r="C579" t="n">
-        <v>3251.65</v>
+        <v>483.31</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>rfocas</t>
+          <t>rfosb161</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>2102</v>
+        <v>562</v>
       </c>
       <c r="C580" t="n">
-        <v>325.33</v>
+        <v>289.26</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>rfobalucan</t>
+          <t>rfgeiss</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>5584</v>
+        <v>1440</v>
       </c>
       <c r="C581" t="n">
-        <v>1567.04</v>
+        <v>439.79</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>rfpetf</t>
+          <t>h-</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>241</v>
+        <v>735</v>
       </c>
       <c r="C582" t="n">
-        <v>108.18</v>
+        <v>153.54</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>RFOSTREE</t>
+          <t>rfogatli</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>4652</v>
+        <v>20173</v>
       </c>
       <c r="C583" t="n">
-        <v>2063.35</v>
+        <v>7163.589999999999</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>rf0ks161</t>
+          <t>rfohodge</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="C584" t="n">
-        <v>849.51</v>
+        <v>961.8000000000001</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>rfoksc175</t>
+          <t>rfoksc174</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>2486</v>
+        <v>2945</v>
       </c>
       <c r="C585" t="n">
-        <v>443.93</v>
+        <v>675.95</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>rf8107</t>
+          <t>RF0321</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>3883</v>
+        <v>434</v>
       </c>
       <c r="C586" t="n">
-        <v>621.8699999999999</v>
+        <v>100.92</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>RFKJOHNSS</t>
+          <t>rfohorn</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>6167</v>
+        <v>193</v>
       </c>
       <c r="C587" t="n">
-        <v>1379.44</v>
+        <v>178.88</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ffostree</t>
+          <t>rf0ks61</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>722</v>
+        <v>347</v>
       </c>
       <c r="C588" t="n">
-        <v>178.85</v>
+        <v>80.18000000000001</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>lindsj</t>
+          <t>fokksb965</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>345</v>
+        <v>4762</v>
       </c>
       <c r="C589" t="n">
-        <v>195.33</v>
+        <v>327.62</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>RFOBRADA</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>15</v>
+        <v>11920</v>
       </c>
       <c r="C590" t="n">
-        <v>223.12</v>
+        <v>7943.030000000002</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ROFSTOTT</t>
+          <t>rf0ksb161</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>404</v>
+        <v>2009</v>
       </c>
       <c r="C591" t="n">
-        <v>186.24</v>
+        <v>592.28</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>rfoksb965</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>14030</v>
+        <v>2749</v>
       </c>
       <c r="C592" t="n">
-        <v>3583.97</v>
+        <v>672.05</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>5398262</t>
+          <t>rfkcottd</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>12929</v>
+        <v>1696</v>
       </c>
       <c r="C593" t="n">
-        <v>5377.48</v>
+        <v>226.13</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>JOONESZA</t>
+          <t>rf0321</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>98</v>
+        <v>5671</v>
       </c>
       <c r="C594" t="n">
-        <v>695.08</v>
+        <v>3241.3</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>rfklund</t>
+          <t>rfosilvet</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>15224</v>
       </c>
       <c r="C595" t="n">
-        <v>141.34</v>
+        <v>3379.17</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>rfomila</t>
+          <t>RFOKSB871</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1977</v>
+        <v>1136</v>
       </c>
       <c r="C596" t="n">
-        <v>374.67</v>
+        <v>1403.27</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>rfodelo</t>
+          <t>RFOKSC903</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>6</v>
+        <v>1121</v>
       </c>
       <c r="C597" t="n">
-        <v>10.19</v>
+        <v>626.0899999999999</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ma</t>
+          <t>rf8076</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>418</v>
+        <v>634</v>
       </c>
       <c r="C598" t="n">
-        <v>86.62</v>
+        <v>5994.879999999999</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>rfokb96</t>
+          <t>h</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1006</v>
+        <v>1217</v>
       </c>
       <c r="C599" t="n">
-        <v>344.22</v>
+        <v>496.25</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>rfjohson</t>
+          <t>rfopeto</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="C600" t="n">
-        <v>357.12</v>
+        <v>476.97</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>RFOMART</t>
+          <t>rfklundbrf7226</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>101.71</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>rfoguilf</t>
+          <t>RFODISCH</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>102</v>
+        <v>3548</v>
       </c>
       <c r="C602" t="n">
-        <v>179.01</v>
+        <v>1050.36</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>rfoksb94</t>
+          <t>rfoksb16</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>580</v>
+        <v>988</v>
       </c>
       <c r="C603" t="n">
-        <v>152.14</v>
+        <v>737.58</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>rfocecr</t>
+          <t>rfowich</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>2469</v>
+        <v>147</v>
       </c>
       <c r="C604" t="n">
-        <v>500.09</v>
+        <v>64.39</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>rfoksb159</t>
+          <t>B881</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>13504</v>
+        <v>4</v>
       </c>
       <c r="C605" t="n">
-        <v>5808.989999999999</v>
+        <v>215.73</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>rfomcalp</t>
+          <t>RFODISCHERT</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>14025</v>
+        <v>5983</v>
       </c>
       <c r="C606" t="n">
-        <v>4236.82</v>
+        <v>1287.72</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>rfojohnss</t>
+          <t>rfobreh</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>5177</v>
+        <v>603</v>
       </c>
       <c r="C607" t="n">
-        <v>769.5</v>
+        <v>185.96</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>rf0ksb161</t>
+          <t>rfoksb405</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>2009</v>
+        <v>231</v>
       </c>
       <c r="C608" t="n">
-        <v>592.28</v>
+        <v>47.43</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>RFOCLARK</t>
+          <t>RFOKSB887</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>7401</v>
+        <v>2578</v>
       </c>
       <c r="C609" t="n">
-        <v>2102.32</v>
+        <v>1799.78</v>
       </c>
     </row>
   </sheetData>
